--- a/server/data/resources/KRS_ROR_AMR_clean_mapping.xlsx
+++ b/server/data/resources/KRS_ROR_AMR_clean_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Desktop\BMF-DataVis\server\data\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1789074-EFBB-44E0-87DF-639183632C07}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3674FE42-78F0-415D-BA56-F0DCEF285C2A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B728533D-2FCC-42F7-AAD0-D9C231CDF6B6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="780">
   <si>
     <t>01001</t>
   </si>
@@ -2368,6 +2368,9 @@
   </si>
   <si>
     <t>Bund</t>
+  </si>
+  <si>
+    <t>Ost_West</t>
   </si>
 </sst>
 </file>
@@ -2740,10 +2743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85ECE79-C53C-4EDF-9612-DD2A0AFA43B7}">
-  <dimension ref="A1:G403"/>
+  <dimension ref="A1:H403"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="G403" sqref="G403"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,7 +2758,7 @@
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>777</v>
       </c>
@@ -2777,8 +2780,11 @@
       <c r="G1" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2800,8 +2806,11 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2823,8 +2832,11 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2846,8 +2858,11 @@
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2869,8 +2884,11 @@
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2892,8 +2910,11 @@
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2915,8 +2936,11 @@
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -2938,8 +2962,11 @@
       <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -2961,8 +2988,11 @@
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -2984,8 +3014,11 @@
       <c r="G10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -3007,8 +3040,11 @@
       <c r="G11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -3030,8 +3066,11 @@
       <c r="G12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -3053,8 +3092,11 @@
       <c r="G13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -3076,8 +3118,11 @@
       <c r="G14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -3099,8 +3144,11 @@
       <c r="G15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -3122,8 +3170,11 @@
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -3145,8 +3196,11 @@
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -3168,8 +3222,11 @@
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -3191,8 +3248,11 @@
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -3214,8 +3274,11 @@
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -3237,8 +3300,11 @@
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -3260,8 +3326,11 @@
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -3283,8 +3352,11 @@
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -3306,8 +3378,11 @@
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -3329,8 +3404,11 @@
       <c r="G25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
@@ -3352,8 +3430,11 @@
       <c r="G26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -3375,8 +3456,11 @@
       <c r="G27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -3398,8 +3482,11 @@
       <c r="G28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -3421,8 +3508,11 @@
       <c r="G29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -3444,8 +3534,11 @@
       <c r="G30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -3467,8 +3560,11 @@
       <c r="G31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -3490,8 +3586,11 @@
       <c r="G32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -3513,8 +3612,11 @@
       <c r="G33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -3536,8 +3638,11 @@
       <c r="G34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -3559,8 +3664,11 @@
       <c r="G35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -3582,8 +3690,11 @@
       <c r="G36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -3605,8 +3716,11 @@
       <c r="G37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -3628,8 +3742,11 @@
       <c r="G38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -3651,8 +3768,11 @@
       <c r="G39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
@@ -3674,8 +3794,11 @@
       <c r="G40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
@@ -3697,8 +3820,11 @@
       <c r="G41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -3720,8 +3846,11 @@
       <c r="G42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -3743,8 +3872,11 @@
       <c r="G43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
@@ -3766,8 +3898,11 @@
       <c r="G44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
@@ -3789,8 +3924,11 @@
       <c r="G45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
@@ -3812,8 +3950,11 @@
       <c r="G46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
@@ -3835,8 +3976,11 @@
       <c r="G47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
@@ -3858,8 +4002,11 @@
       <c r="G48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -3881,8 +4028,11 @@
       <c r="G49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
@@ -3904,8 +4054,11 @@
       <c r="G50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -3927,8 +4080,11 @@
       <c r="G51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -3950,8 +4106,11 @@
       <c r="G52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
@@ -3973,8 +4132,11 @@
       <c r="G53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -3996,8 +4158,11 @@
       <c r="G54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
@@ -4019,8 +4184,11 @@
       <c r="G55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
@@ -4042,8 +4210,11 @@
       <c r="G56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
@@ -4065,8 +4236,11 @@
       <c r="G57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
@@ -4088,8 +4262,11 @@
       <c r="G58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
@@ -4111,8 +4288,11 @@
       <c r="G59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
@@ -4134,8 +4314,11 @@
       <c r="G60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
@@ -4157,8 +4340,11 @@
       <c r="G61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
@@ -4180,8 +4366,11 @@
       <c r="G62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
@@ -4203,8 +4392,11 @@
       <c r="G63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
@@ -4226,8 +4418,11 @@
       <c r="G64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
@@ -4249,8 +4444,11 @@
       <c r="G65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>64</v>
       </c>
@@ -4272,8 +4470,11 @@
       <c r="G66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>65</v>
       </c>
@@ -4295,8 +4496,11 @@
       <c r="G67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>66</v>
       </c>
@@ -4318,8 +4522,11 @@
       <c r="G68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
@@ -4341,8 +4548,11 @@
       <c r="G69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>68</v>
       </c>
@@ -4364,8 +4574,11 @@
       <c r="G70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>69</v>
       </c>
@@ -4387,8 +4600,11 @@
       <c r="G71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
@@ -4410,8 +4626,11 @@
       <c r="G72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>71</v>
       </c>
@@ -4433,8 +4652,11 @@
       <c r="G73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>72</v>
       </c>
@@ -4456,8 +4678,11 @@
       <c r="G74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>73</v>
       </c>
@@ -4479,8 +4704,11 @@
       <c r="G75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>74</v>
       </c>
@@ -4502,8 +4730,11 @@
       <c r="G76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
@@ -4525,8 +4756,11 @@
       <c r="G77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>76</v>
       </c>
@@ -4548,8 +4782,11 @@
       <c r="G78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>77</v>
       </c>
@@ -4571,8 +4808,11 @@
       <c r="G79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>78</v>
       </c>
@@ -4594,8 +4834,11 @@
       <c r="G80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4860,11 @@
       <c r="G81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>80</v>
       </c>
@@ -4640,8 +4886,11 @@
       <c r="G82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
@@ -4663,8 +4912,11 @@
       <c r="G83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>82</v>
       </c>
@@ -4686,8 +4938,11 @@
       <c r="G84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>83</v>
       </c>
@@ -4709,8 +4964,11 @@
       <c r="G85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>84</v>
       </c>
@@ -4732,8 +4990,11 @@
       <c r="G86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>85</v>
       </c>
@@ -4755,8 +5016,11 @@
       <c r="G87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>86</v>
       </c>
@@ -4778,8 +5042,11 @@
       <c r="G88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>87</v>
       </c>
@@ -4801,8 +5068,11 @@
       <c r="G89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>88</v>
       </c>
@@ -4824,8 +5094,11 @@
       <c r="G90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>89</v>
       </c>
@@ -4847,8 +5120,11 @@
       <c r="G91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>90</v>
       </c>
@@ -4870,8 +5146,11 @@
       <c r="G92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>91</v>
       </c>
@@ -4893,8 +5172,11 @@
       <c r="G93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>92</v>
       </c>
@@ -4916,8 +5198,11 @@
       <c r="G94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>93</v>
       </c>
@@ -4939,8 +5224,11 @@
       <c r="G95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>94</v>
       </c>
@@ -4962,8 +5250,11 @@
       <c r="G96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>95</v>
       </c>
@@ -4985,8 +5276,11 @@
       <c r="G97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>96</v>
       </c>
@@ -5008,8 +5302,11 @@
       <c r="G98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>97</v>
       </c>
@@ -5031,8 +5328,11 @@
       <c r="G99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>98</v>
       </c>
@@ -5054,8 +5354,11 @@
       <c r="G100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>99</v>
       </c>
@@ -5077,8 +5380,11 @@
       <c r="G101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>100</v>
       </c>
@@ -5100,8 +5406,11 @@
       <c r="G102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>101</v>
       </c>
@@ -5123,8 +5432,11 @@
       <c r="G103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>102</v>
       </c>
@@ -5146,8 +5458,11 @@
       <c r="G104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>103</v>
       </c>
@@ -5169,8 +5484,11 @@
       <c r="G105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>104</v>
       </c>
@@ -5192,8 +5510,11 @@
       <c r="G106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>105</v>
       </c>
@@ -5215,8 +5536,11 @@
       <c r="G107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>106</v>
       </c>
@@ -5238,8 +5562,11 @@
       <c r="G108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>107</v>
       </c>
@@ -5261,8 +5588,11 @@
       <c r="G109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>108</v>
       </c>
@@ -5284,8 +5614,11 @@
       <c r="G110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>109</v>
       </c>
@@ -5307,8 +5640,11 @@
       <c r="G111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>110</v>
       </c>
@@ -5330,8 +5666,11 @@
       <c r="G112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>111</v>
       </c>
@@ -5353,8 +5692,11 @@
       <c r="G113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>112</v>
       </c>
@@ -5376,8 +5718,11 @@
       <c r="G114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>113</v>
       </c>
@@ -5399,8 +5744,11 @@
       <c r="G115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>114</v>
       </c>
@@ -5422,8 +5770,11 @@
       <c r="G116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>115</v>
       </c>
@@ -5445,8 +5796,11 @@
       <c r="G117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>116</v>
       </c>
@@ -5468,8 +5822,11 @@
       <c r="G118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>117</v>
       </c>
@@ -5491,8 +5848,11 @@
       <c r="G119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>118</v>
       </c>
@@ -5514,8 +5874,11 @@
       <c r="G120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>119</v>
       </c>
@@ -5537,8 +5900,11 @@
       <c r="G121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>120</v>
       </c>
@@ -5560,8 +5926,11 @@
       <c r="G122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>121</v>
       </c>
@@ -5583,8 +5952,11 @@
       <c r="G123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>122</v>
       </c>
@@ -5606,8 +5978,11 @@
       <c r="G124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>123</v>
       </c>
@@ -5629,8 +6004,11 @@
       <c r="G125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>124</v>
       </c>
@@ -5652,8 +6030,11 @@
       <c r="G126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>125</v>
       </c>
@@ -5675,8 +6056,11 @@
       <c r="G127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>126</v>
       </c>
@@ -5698,8 +6082,11 @@
       <c r="G128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>127</v>
       </c>
@@ -5721,8 +6108,11 @@
       <c r="G129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>128</v>
       </c>
@@ -5744,8 +6134,11 @@
       <c r="G130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>129</v>
       </c>
@@ -5767,8 +6160,11 @@
       <c r="G131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>130</v>
       </c>
@@ -5790,8 +6186,11 @@
       <c r="G132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>131</v>
       </c>
@@ -5813,8 +6212,11 @@
       <c r="G133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>132</v>
       </c>
@@ -5836,8 +6238,11 @@
       <c r="G134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>133</v>
       </c>
@@ -5859,8 +6264,11 @@
       <c r="G135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>134</v>
       </c>
@@ -5882,8 +6290,11 @@
       <c r="G136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>135</v>
       </c>
@@ -5905,8 +6316,11 @@
       <c r="G137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>136</v>
       </c>
@@ -5928,8 +6342,11 @@
       <c r="G138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>137</v>
       </c>
@@ -5951,8 +6368,11 @@
       <c r="G139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>138</v>
       </c>
@@ -5974,8 +6394,11 @@
       <c r="G140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>139</v>
       </c>
@@ -5997,8 +6420,11 @@
       <c r="G141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>140</v>
       </c>
@@ -6020,8 +6446,11 @@
       <c r="G142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>141</v>
       </c>
@@ -6043,8 +6472,11 @@
       <c r="G143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>142</v>
       </c>
@@ -6066,8 +6498,11 @@
       <c r="G144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>143</v>
       </c>
@@ -6089,8 +6524,11 @@
       <c r="G145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>144</v>
       </c>
@@ -6112,8 +6550,11 @@
       <c r="G146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>145</v>
       </c>
@@ -6135,8 +6576,11 @@
       <c r="G147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>146</v>
       </c>
@@ -6158,8 +6602,11 @@
       <c r="G148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>147</v>
       </c>
@@ -6181,8 +6628,11 @@
       <c r="G149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>148</v>
       </c>
@@ -6204,8 +6654,11 @@
       <c r="G150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>149</v>
       </c>
@@ -6227,8 +6680,11 @@
       <c r="G151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>150</v>
       </c>
@@ -6250,8 +6706,11 @@
       <c r="G152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>151</v>
       </c>
@@ -6273,8 +6732,11 @@
       <c r="G153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>152</v>
       </c>
@@ -6296,8 +6758,11 @@
       <c r="G154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>153</v>
       </c>
@@ -6319,8 +6784,11 @@
       <c r="G155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>154</v>
       </c>
@@ -6342,8 +6810,11 @@
       <c r="G156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>155</v>
       </c>
@@ -6365,8 +6836,11 @@
       <c r="G157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>156</v>
       </c>
@@ -6388,8 +6862,11 @@
       <c r="G158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>157</v>
       </c>
@@ -6411,8 +6888,11 @@
       <c r="G159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>158</v>
       </c>
@@ -6434,8 +6914,11 @@
       <c r="G160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>159</v>
       </c>
@@ -6457,8 +6940,11 @@
       <c r="G161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>160</v>
       </c>
@@ -6480,8 +6966,11 @@
       <c r="G162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>161</v>
       </c>
@@ -6503,8 +6992,11 @@
       <c r="G163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>162</v>
       </c>
@@ -6526,8 +7018,11 @@
       <c r="G164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>163</v>
       </c>
@@ -6549,8 +7044,11 @@
       <c r="G165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>164</v>
       </c>
@@ -6572,8 +7070,11 @@
       <c r="G166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>165</v>
       </c>
@@ -6595,8 +7096,11 @@
       <c r="G167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>166</v>
       </c>
@@ -6618,8 +7122,11 @@
       <c r="G168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>167</v>
       </c>
@@ -6641,8 +7148,11 @@
       <c r="G169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>168</v>
       </c>
@@ -6664,8 +7174,11 @@
       <c r="G170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>169</v>
       </c>
@@ -6687,8 +7200,11 @@
       <c r="G171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>170</v>
       </c>
@@ -6710,8 +7226,11 @@
       <c r="G172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>171</v>
       </c>
@@ -6733,8 +7252,11 @@
       <c r="G173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>172</v>
       </c>
@@ -6756,8 +7278,11 @@
       <c r="G174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>173</v>
       </c>
@@ -6779,8 +7304,11 @@
       <c r="G175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>174</v>
       </c>
@@ -6802,8 +7330,11 @@
       <c r="G176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>175</v>
       </c>
@@ -6825,8 +7356,11 @@
       <c r="G177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>176</v>
       </c>
@@ -6848,8 +7382,11 @@
       <c r="G178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>177</v>
       </c>
@@ -6871,8 +7408,11 @@
       <c r="G179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>178</v>
       </c>
@@ -6894,8 +7434,11 @@
       <c r="G180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>179</v>
       </c>
@@ -6917,8 +7460,11 @@
       <c r="G181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>180</v>
       </c>
@@ -6940,8 +7486,11 @@
       <c r="G182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>181</v>
       </c>
@@ -6963,8 +7512,11 @@
       <c r="G183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>182</v>
       </c>
@@ -6986,8 +7538,11 @@
       <c r="G184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>183</v>
       </c>
@@ -7009,8 +7564,11 @@
       <c r="G185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>184</v>
       </c>
@@ -7032,8 +7590,11 @@
       <c r="G186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>185</v>
       </c>
@@ -7055,8 +7616,11 @@
       <c r="G187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>186</v>
       </c>
@@ -7078,8 +7642,11 @@
       <c r="G188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>187</v>
       </c>
@@ -7101,8 +7668,11 @@
       <c r="G189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>188</v>
       </c>
@@ -7124,8 +7694,11 @@
       <c r="G190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>189</v>
       </c>
@@ -7147,8 +7720,11 @@
       <c r="G191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>190</v>
       </c>
@@ -7170,8 +7746,11 @@
       <c r="G192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>191</v>
       </c>
@@ -7193,8 +7772,11 @@
       <c r="G193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>192</v>
       </c>
@@ -7216,8 +7798,11 @@
       <c r="G194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>193</v>
       </c>
@@ -7239,8 +7824,11 @@
       <c r="G195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>194</v>
       </c>
@@ -7262,8 +7850,11 @@
       <c r="G196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>195</v>
       </c>
@@ -7285,8 +7876,11 @@
       <c r="G197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>196</v>
       </c>
@@ -7308,8 +7902,11 @@
       <c r="G198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>197</v>
       </c>
@@ -7331,8 +7928,11 @@
       <c r="G199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>198</v>
       </c>
@@ -7354,8 +7954,11 @@
       <c r="G200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>199</v>
       </c>
@@ -7377,8 +7980,11 @@
       <c r="G201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>200</v>
       </c>
@@ -7400,8 +8006,11 @@
       <c r="G202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>201</v>
       </c>
@@ -7423,8 +8032,11 @@
       <c r="G203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>202</v>
       </c>
@@ -7446,8 +8058,11 @@
       <c r="G204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>203</v>
       </c>
@@ -7469,8 +8084,11 @@
       <c r="G205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>204</v>
       </c>
@@ -7492,8 +8110,11 @@
       <c r="G206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>205</v>
       </c>
@@ -7515,8 +8136,11 @@
       <c r="G207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>206</v>
       </c>
@@ -7538,8 +8162,11 @@
       <c r="G208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>207</v>
       </c>
@@ -7561,8 +8188,11 @@
       <c r="G209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>208</v>
       </c>
@@ -7584,8 +8214,11 @@
       <c r="G210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>209</v>
       </c>
@@ -7607,8 +8240,11 @@
       <c r="G211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>210</v>
       </c>
@@ -7630,8 +8266,11 @@
       <c r="G212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>211</v>
       </c>
@@ -7653,8 +8292,11 @@
       <c r="G213">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>212</v>
       </c>
@@ -7676,8 +8318,11 @@
       <c r="G214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>213</v>
       </c>
@@ -7699,8 +8344,11 @@
       <c r="G215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>214</v>
       </c>
@@ -7722,8 +8370,11 @@
       <c r="G216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>215</v>
       </c>
@@ -7745,8 +8396,11 @@
       <c r="G217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>216</v>
       </c>
@@ -7768,8 +8422,11 @@
       <c r="G218">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>217</v>
       </c>
@@ -7791,8 +8448,11 @@
       <c r="G219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>218</v>
       </c>
@@ -7814,8 +8474,11 @@
       <c r="G220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>219</v>
       </c>
@@ -7837,8 +8500,11 @@
       <c r="G221">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>220</v>
       </c>
@@ -7860,8 +8526,11 @@
       <c r="G222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>221</v>
       </c>
@@ -7883,8 +8552,11 @@
       <c r="G223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>222</v>
       </c>
@@ -7906,8 +8578,11 @@
       <c r="G224">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>223</v>
       </c>
@@ -7929,8 +8604,11 @@
       <c r="G225">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>224</v>
       </c>
@@ -7952,8 +8630,11 @@
       <c r="G226">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>225</v>
       </c>
@@ -7975,8 +8656,11 @@
       <c r="G227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>226</v>
       </c>
@@ -7998,8 +8682,11 @@
       <c r="G228">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>227</v>
       </c>
@@ -8021,8 +8708,11 @@
       <c r="G229">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>228</v>
       </c>
@@ -8044,8 +8734,11 @@
       <c r="G230">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>229</v>
       </c>
@@ -8067,8 +8760,11 @@
       <c r="G231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>230</v>
       </c>
@@ -8090,8 +8786,11 @@
       <c r="G232">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>231</v>
       </c>
@@ -8113,8 +8812,11 @@
       <c r="G233">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>232</v>
       </c>
@@ -8136,8 +8838,11 @@
       <c r="G234">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>233</v>
       </c>
@@ -8159,8 +8864,11 @@
       <c r="G235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>234</v>
       </c>
@@ -8182,8 +8890,11 @@
       <c r="G236">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>235</v>
       </c>
@@ -8205,8 +8916,11 @@
       <c r="G237">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>236</v>
       </c>
@@ -8228,8 +8942,11 @@
       <c r="G238">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>237</v>
       </c>
@@ -8251,8 +8968,11 @@
       <c r="G239">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>238</v>
       </c>
@@ -8274,8 +8994,11 @@
       <c r="G240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>239</v>
       </c>
@@ -8297,8 +9020,11 @@
       <c r="G241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>240</v>
       </c>
@@ -8320,8 +9046,11 @@
       <c r="G242">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>241</v>
       </c>
@@ -8343,8 +9072,11 @@
       <c r="G243">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>242</v>
       </c>
@@ -8366,8 +9098,11 @@
       <c r="G244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>243</v>
       </c>
@@ -8389,8 +9124,11 @@
       <c r="G245">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>244</v>
       </c>
@@ -8412,8 +9150,11 @@
       <c r="G246">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>245</v>
       </c>
@@ -8435,8 +9176,11 @@
       <c r="G247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>246</v>
       </c>
@@ -8458,8 +9202,11 @@
       <c r="G248">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>247</v>
       </c>
@@ -8481,8 +9228,11 @@
       <c r="G249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>248</v>
       </c>
@@ -8504,8 +9254,11 @@
       <c r="G250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>249</v>
       </c>
@@ -8527,8 +9280,11 @@
       <c r="G251">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>250</v>
       </c>
@@ -8550,8 +9306,11 @@
       <c r="G252">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>251</v>
       </c>
@@ -8573,8 +9332,11 @@
       <c r="G253">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>252</v>
       </c>
@@ -8596,8 +9358,11 @@
       <c r="G254">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>253</v>
       </c>
@@ -8619,8 +9384,11 @@
       <c r="G255">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>254</v>
       </c>
@@ -8642,8 +9410,11 @@
       <c r="G256">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>255</v>
       </c>
@@ -8665,8 +9436,11 @@
       <c r="G257">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>256</v>
       </c>
@@ -8688,8 +9462,11 @@
       <c r="G258">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>257</v>
       </c>
@@ -8711,8 +9488,11 @@
       <c r="G259">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>258</v>
       </c>
@@ -8734,8 +9514,11 @@
       <c r="G260">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>259</v>
       </c>
@@ -8757,8 +9540,11 @@
       <c r="G261">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>260</v>
       </c>
@@ -8780,8 +9566,11 @@
       <c r="G262">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>261</v>
       </c>
@@ -8803,8 +9592,11 @@
       <c r="G263">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>262</v>
       </c>
@@ -8826,8 +9618,11 @@
       <c r="G264">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>263</v>
       </c>
@@ -8849,8 +9644,11 @@
       <c r="G265">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>264</v>
       </c>
@@ -8872,8 +9670,11 @@
       <c r="G266">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>265</v>
       </c>
@@ -8895,8 +9696,11 @@
       <c r="G267">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>266</v>
       </c>
@@ -8918,8 +9722,11 @@
       <c r="G268">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>267</v>
       </c>
@@ -8941,8 +9748,11 @@
       <c r="G269">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>268</v>
       </c>
@@ -8964,8 +9774,11 @@
       <c r="G270">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>269</v>
       </c>
@@ -8987,8 +9800,11 @@
       <c r="G271">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>270</v>
       </c>
@@ -9010,8 +9826,11 @@
       <c r="G272">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>271</v>
       </c>
@@ -9033,8 +9852,11 @@
       <c r="G273">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>272</v>
       </c>
@@ -9056,8 +9878,11 @@
       <c r="G274">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>273</v>
       </c>
@@ -9079,8 +9904,11 @@
       <c r="G275">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>274</v>
       </c>
@@ -9102,8 +9930,11 @@
       <c r="G276">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>275</v>
       </c>
@@ -9125,8 +9956,11 @@
       <c r="G277">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>276</v>
       </c>
@@ -9148,8 +9982,11 @@
       <c r="G278">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>277</v>
       </c>
@@ -9171,8 +10008,11 @@
       <c r="G279">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>278</v>
       </c>
@@ -9194,8 +10034,11 @@
       <c r="G280">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>279</v>
       </c>
@@ -9217,8 +10060,11 @@
       <c r="G281">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>280</v>
       </c>
@@ -9240,8 +10086,11 @@
       <c r="G282">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>281</v>
       </c>
@@ -9263,8 +10112,11 @@
       <c r="G283">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>282</v>
       </c>
@@ -9286,8 +10138,11 @@
       <c r="G284">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>283</v>
       </c>
@@ -9309,8 +10164,11 @@
       <c r="G285">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>284</v>
       </c>
@@ -9332,8 +10190,11 @@
       <c r="G286">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>285</v>
       </c>
@@ -9355,8 +10216,11 @@
       <c r="G287">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>286</v>
       </c>
@@ -9378,8 +10242,11 @@
       <c r="G288">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>287</v>
       </c>
@@ -9401,8 +10268,11 @@
       <c r="G289">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>288</v>
       </c>
@@ -9424,8 +10294,11 @@
       <c r="G290">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>289</v>
       </c>
@@ -9447,8 +10320,11 @@
       <c r="G291">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>290</v>
       </c>
@@ -9470,8 +10346,11 @@
       <c r="G292">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>291</v>
       </c>
@@ -9493,8 +10372,11 @@
       <c r="G293">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>292</v>
       </c>
@@ -9516,8 +10398,11 @@
       <c r="G294">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>293</v>
       </c>
@@ -9539,8 +10424,11 @@
       <c r="G295">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>294</v>
       </c>
@@ -9562,8 +10450,11 @@
       <c r="G296">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>295</v>
       </c>
@@ -9585,8 +10476,11 @@
       <c r="G297">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>296</v>
       </c>
@@ -9608,8 +10502,11 @@
       <c r="G298">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>297</v>
       </c>
@@ -9631,8 +10528,11 @@
       <c r="G299">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>298</v>
       </c>
@@ -9654,8 +10554,11 @@
       <c r="G300">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>299</v>
       </c>
@@ -9677,8 +10580,11 @@
       <c r="G301">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>300</v>
       </c>
@@ -9700,8 +10606,11 @@
       <c r="G302">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>301</v>
       </c>
@@ -9723,8 +10632,11 @@
       <c r="G303">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>302</v>
       </c>
@@ -9746,8 +10658,11 @@
       <c r="G304">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>303</v>
       </c>
@@ -9769,8 +10684,11 @@
       <c r="G305">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>304</v>
       </c>
@@ -9792,8 +10710,11 @@
       <c r="G306">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>305</v>
       </c>
@@ -9815,8 +10736,11 @@
       <c r="G307">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>306</v>
       </c>
@@ -9838,8 +10762,11 @@
       <c r="G308">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>307</v>
       </c>
@@ -9861,8 +10788,11 @@
       <c r="G309">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>308</v>
       </c>
@@ -9884,8 +10814,11 @@
       <c r="G310">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>309</v>
       </c>
@@ -9907,8 +10840,11 @@
       <c r="G311">
         <v>1</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>310</v>
       </c>
@@ -9930,8 +10866,11 @@
       <c r="G312">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>311</v>
       </c>
@@ -9953,8 +10892,11 @@
       <c r="G313">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>312</v>
       </c>
@@ -9976,8 +10918,11 @@
       <c r="G314">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>313</v>
       </c>
@@ -9999,8 +10944,11 @@
       <c r="G315">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>314</v>
       </c>
@@ -10022,8 +10970,11 @@
       <c r="G316">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>315</v>
       </c>
@@ -10045,8 +10996,11 @@
       <c r="G317">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>316</v>
       </c>
@@ -10068,8 +11022,11 @@
       <c r="G318">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>317</v>
       </c>
@@ -10091,8 +11048,11 @@
       <c r="G319">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>318</v>
       </c>
@@ -10114,8 +11074,11 @@
       <c r="G320">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>319</v>
       </c>
@@ -10137,8 +11100,11 @@
       <c r="G321">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>320</v>
       </c>
@@ -10160,8 +11126,11 @@
       <c r="G322">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>321</v>
       </c>
@@ -10183,8 +11152,11 @@
       <c r="G323">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>322</v>
       </c>
@@ -10206,8 +11178,11 @@
       <c r="G324">
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>323</v>
       </c>
@@ -10229,8 +11204,11 @@
       <c r="G325">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>324</v>
       </c>
@@ -10252,8 +11230,11 @@
       <c r="G326">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>325</v>
       </c>
@@ -10275,8 +11256,11 @@
       <c r="G327">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>326</v>
       </c>
@@ -10298,8 +11282,11 @@
       <c r="G328">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H328">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>327</v>
       </c>
@@ -10321,8 +11308,11 @@
       <c r="G329">
         <v>1</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H329">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>328</v>
       </c>
@@ -10344,8 +11334,11 @@
       <c r="G330">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H330">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>329</v>
       </c>
@@ -10367,8 +11360,11 @@
       <c r="G331">
         <v>1</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H331">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>330</v>
       </c>
@@ -10390,8 +11386,11 @@
       <c r="G332">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H332">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>331</v>
       </c>
@@ -10413,8 +11412,11 @@
       <c r="G333">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H333">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>332</v>
       </c>
@@ -10436,8 +11438,11 @@
       <c r="G334">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H334">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>333</v>
       </c>
@@ -10459,8 +11464,11 @@
       <c r="G335">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H335">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>334</v>
       </c>
@@ -10482,8 +11490,11 @@
       <c r="G336">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H336">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>335</v>
       </c>
@@ -10505,8 +11516,11 @@
       <c r="G337">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H337">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>336</v>
       </c>
@@ -10528,8 +11542,11 @@
       <c r="G338">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H338">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>337</v>
       </c>
@@ -10551,8 +11568,11 @@
       <c r="G339">
         <v>1</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H339">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>338</v>
       </c>
@@ -10574,8 +11594,11 @@
       <c r="G340">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H340">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>339</v>
       </c>
@@ -10597,8 +11620,11 @@
       <c r="G341">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H341">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>340</v>
       </c>
@@ -10620,8 +11646,11 @@
       <c r="G342">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H342">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>341</v>
       </c>
@@ -10643,8 +11672,11 @@
       <c r="G343">
         <v>1</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H343">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>342</v>
       </c>
@@ -10666,8 +11698,11 @@
       <c r="G344">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H344">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>343</v>
       </c>
@@ -10689,8 +11724,11 @@
       <c r="G345">
         <v>1</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H345">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>344</v>
       </c>
@@ -10712,8 +11750,11 @@
       <c r="G346">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H346">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>345</v>
       </c>
@@ -10735,8 +11776,11 @@
       <c r="G347">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H347">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>346</v>
       </c>
@@ -10758,8 +11802,11 @@
       <c r="G348">
         <v>1</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H348">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>347</v>
       </c>
@@ -10781,8 +11828,11 @@
       <c r="G349">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H349">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>348</v>
       </c>
@@ -10804,8 +11854,11 @@
       <c r="G350">
         <v>1</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H350">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>349</v>
       </c>
@@ -10827,8 +11880,11 @@
       <c r="G351">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H351">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>350</v>
       </c>
@@ -10850,8 +11906,11 @@
       <c r="G352">
         <v>1</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H352">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>351</v>
       </c>
@@ -10873,8 +11932,11 @@
       <c r="G353">
         <v>1</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H353">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>352</v>
       </c>
@@ -10896,8 +11958,11 @@
       <c r="G354">
         <v>1</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H354">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>353</v>
       </c>
@@ -10919,8 +11984,11 @@
       <c r="G355">
         <v>1</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H355">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>354</v>
       </c>
@@ -10942,8 +12010,11 @@
       <c r="G356">
         <v>1</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H356">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>355</v>
       </c>
@@ -10965,8 +12036,11 @@
       <c r="G357">
         <v>1</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H357">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>356</v>
       </c>
@@ -10988,8 +12062,11 @@
       <c r="G358">
         <v>1</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H358">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>357</v>
       </c>
@@ -11011,8 +12088,11 @@
       <c r="G359">
         <v>1</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H359">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>358</v>
       </c>
@@ -11034,8 +12114,11 @@
       <c r="G360">
         <v>1</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H360">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>359</v>
       </c>
@@ -11057,8 +12140,11 @@
       <c r="G361">
         <v>1</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H361">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>360</v>
       </c>
@@ -11080,8 +12166,11 @@
       <c r="G362">
         <v>1</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H362">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>361</v>
       </c>
@@ -11103,8 +12192,11 @@
       <c r="G363">
         <v>1</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H363">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>362</v>
       </c>
@@ -11126,8 +12218,11 @@
       <c r="G364">
         <v>1</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H364">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>363</v>
       </c>
@@ -11149,8 +12244,11 @@
       <c r="G365">
         <v>1</v>
       </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H365">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>364</v>
       </c>
@@ -11172,8 +12270,11 @@
       <c r="G366">
         <v>1</v>
       </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H366">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>365</v>
       </c>
@@ -11195,8 +12296,11 @@
       <c r="G367">
         <v>1</v>
       </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H367">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>366</v>
       </c>
@@ -11218,8 +12322,11 @@
       <c r="G368">
         <v>1</v>
       </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H368">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>367</v>
       </c>
@@ -11241,8 +12348,11 @@
       <c r="G369">
         <v>1</v>
       </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H369">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>368</v>
       </c>
@@ -11264,8 +12374,11 @@
       <c r="G370">
         <v>1</v>
       </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H370">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>369</v>
       </c>
@@ -11287,8 +12400,11 @@
       <c r="G371">
         <v>1</v>
       </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H371">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>370</v>
       </c>
@@ -11310,8 +12426,11 @@
       <c r="G372">
         <v>1</v>
       </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H372">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>371</v>
       </c>
@@ -11333,8 +12452,11 @@
       <c r="G373">
         <v>1</v>
       </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H373">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>372</v>
       </c>
@@ -11356,8 +12478,11 @@
       <c r="G374">
         <v>1</v>
       </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H374">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>373</v>
       </c>
@@ -11379,8 +12504,11 @@
       <c r="G375">
         <v>1</v>
       </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H375">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>374</v>
       </c>
@@ -11402,8 +12530,11 @@
       <c r="G376">
         <v>1</v>
       </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H376">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>375</v>
       </c>
@@ -11425,8 +12556,11 @@
       <c r="G377">
         <v>1</v>
       </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H377">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>376</v>
       </c>
@@ -11448,8 +12582,11 @@
       <c r="G378">
         <v>1</v>
       </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H378">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>377</v>
       </c>
@@ -11471,8 +12608,11 @@
       <c r="G379">
         <v>1</v>
       </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H379">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>378</v>
       </c>
@@ -11494,8 +12634,11 @@
       <c r="G380">
         <v>1</v>
       </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H380">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>379</v>
       </c>
@@ -11517,8 +12660,11 @@
       <c r="G381">
         <v>1</v>
       </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H381">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>380</v>
       </c>
@@ -11540,8 +12686,11 @@
       <c r="G382">
         <v>1</v>
       </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H382">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>381</v>
       </c>
@@ -11563,8 +12712,11 @@
       <c r="G383">
         <v>1</v>
       </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H383">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>382</v>
       </c>
@@ -11586,8 +12738,11 @@
       <c r="G384">
         <v>1</v>
       </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H384">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>383</v>
       </c>
@@ -11609,8 +12764,11 @@
       <c r="G385">
         <v>1</v>
       </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H385">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>384</v>
       </c>
@@ -11632,8 +12790,11 @@
       <c r="G386">
         <v>1</v>
       </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H386">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>385</v>
       </c>
@@ -11655,8 +12816,11 @@
       <c r="G387">
         <v>1</v>
       </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H387">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>386</v>
       </c>
@@ -11678,8 +12842,11 @@
       <c r="G388">
         <v>1</v>
       </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H388">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>387</v>
       </c>
@@ -11701,8 +12868,11 @@
       <c r="G389">
         <v>1</v>
       </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H389">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>388</v>
       </c>
@@ -11724,8 +12894,11 @@
       <c r="G390">
         <v>1</v>
       </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H390">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>389</v>
       </c>
@@ -11747,8 +12920,11 @@
       <c r="G391">
         <v>1</v>
       </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H391">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>390</v>
       </c>
@@ -11770,8 +12946,11 @@
       <c r="G392">
         <v>1</v>
       </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H392">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>391</v>
       </c>
@@ -11793,8 +12972,11 @@
       <c r="G393">
         <v>1</v>
       </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H393">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>392</v>
       </c>
@@ -11816,8 +12998,11 @@
       <c r="G394">
         <v>1</v>
       </c>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H394">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>393</v>
       </c>
@@ -11839,8 +13024,11 @@
       <c r="G395">
         <v>1</v>
       </c>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H395">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>394</v>
       </c>
@@ -11862,8 +13050,11 @@
       <c r="G396">
         <v>1</v>
       </c>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H396">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>395</v>
       </c>
@@ -11885,8 +13076,11 @@
       <c r="G397">
         <v>1</v>
       </c>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H397">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>396</v>
       </c>
@@ -11908,8 +13102,11 @@
       <c r="G398">
         <v>1</v>
       </c>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H398">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>397</v>
       </c>
@@ -11931,8 +13128,11 @@
       <c r="G399">
         <v>1</v>
       </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H399">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>398</v>
       </c>
@@ -11954,8 +13154,11 @@
       <c r="G400">
         <v>1</v>
       </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H400">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>399</v>
       </c>
@@ -11977,8 +13180,11 @@
       <c r="G401">
         <v>1</v>
       </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H401">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>400</v>
       </c>
@@ -12000,8 +13206,11 @@
       <c r="G402">
         <v>1</v>
       </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H402">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>401</v>
       </c>
@@ -12022,6 +13231,9 @@
       </c>
       <c r="G403">
         <v>1</v>
+      </c>
+      <c r="H403">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/server/data/resources/KRS_ROR_AMR_clean_mapping.xlsx
+++ b/server/data/resources/KRS_ROR_AMR_clean_mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Desktop\BMF-DataVis\server\data\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAAE7DC-94B6-428F-AD4F-182C2E149E09}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E4F042-4928-4CBA-94F0-2A1E7A860A79}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B728533D-2FCC-42F7-AAD0-D9C231CDF6B6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4838" uniqueCount="1418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4838" uniqueCount="1434">
   <si>
     <t>01001</t>
   </si>
@@ -4236,9 +4236,6 @@
     <t>AMR_20_Name</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>AMR_15_Name</t>
   </si>
   <si>
@@ -4285,6 +4282,57 @@
   </si>
   <si>
     <t>AMR_12_Name</t>
+  </si>
+  <si>
+    <t>Neumünster</t>
+  </si>
+  <si>
+    <t>Oldenburg (Oldenburg)</t>
+  </si>
+  <si>
+    <t>Solingen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aachen </t>
+  </si>
+  <si>
+    <t>Münster, Kreisfreie Stadt</t>
+  </si>
+  <si>
+    <t>Frankfurt am Main</t>
+  </si>
+  <si>
+    <t>Zweibrücken</t>
+  </si>
+  <si>
+    <t>Worms</t>
+  </si>
+  <si>
+    <t>Weiden i.d.OPf.</t>
+  </si>
+  <si>
+    <t>Wunsiedel i. Fichtelgebirge</t>
+  </si>
+  <si>
+    <t>Kempten (Allgäu)</t>
+  </si>
+  <si>
+    <t>Brandenburg an der Havel</t>
+  </si>
+  <si>
+    <t>Frankfurt (Oder)</t>
+  </si>
+  <si>
+    <t>Potsdam</t>
+  </si>
+  <si>
+    <t>Elbe-Elster, Landkreis</t>
+  </si>
+  <si>
+    <t>Oberspreewald Lausitz</t>
+  </si>
+  <si>
+    <t>Halle (Saale)</t>
   </si>
 </sst>
 </file>
@@ -4674,7 +4722,7 @@
   <dimension ref="A1:N403"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4718,16 +4766,16 @@
         <v>877</v>
       </c>
       <c r="K1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="L1" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="M1" t="s">
         <v>1400</v>
       </c>
       <c r="N1" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -4765,10 +4813,10 @@
         <v>1264</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="M2" t="s">
-        <v>1401</v>
+        <v>1264</v>
       </c>
       <c r="N2" t="s">
         <v>1264</v>
@@ -4809,10 +4857,10 @@
         <v>1265</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="M3" t="s">
-        <v>1401</v>
+        <v>1265</v>
       </c>
       <c r="N3" t="s">
         <v>1265</v>
@@ -4853,10 +4901,10 @@
         <v>1266</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="M4" t="s">
-        <v>1401</v>
+        <v>1266</v>
       </c>
       <c r="N4" t="s">
         <v>1266</v>
@@ -4897,10 +4945,10 @@
         <v>1265</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="M5" t="s">
-        <v>1401</v>
+        <v>1417</v>
       </c>
       <c r="N5" t="s">
         <v>1265</v>
@@ -4941,10 +4989,10 @@
         <v>1267</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="M6" t="s">
-        <v>1401</v>
+        <v>882</v>
       </c>
       <c r="N6" t="s">
         <v>1267</v>
@@ -4985,10 +5033,10 @@
         <v>1268</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="M7" t="s">
-        <v>1401</v>
+        <v>883</v>
       </c>
       <c r="N7" t="s">
         <v>1268</v>
@@ -5029,10 +5077,10 @@
         <v>1269</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="M8" t="s">
-        <v>1401</v>
+        <v>884</v>
       </c>
       <c r="N8" t="s">
         <v>1269</v>
@@ -5073,10 +5121,10 @@
         <v>1266</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="M9" t="s">
-        <v>1401</v>
+        <v>1266</v>
       </c>
       <c r="N9" t="s">
         <v>1266</v>
@@ -5117,10 +5165,10 @@
         <v>786</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="M10" t="s">
-        <v>1401</v>
+        <v>890</v>
       </c>
       <c r="N10" t="s">
         <v>786</v>
@@ -5161,10 +5209,10 @@
         <v>1265</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="M11" t="s">
-        <v>1401</v>
+        <v>1265</v>
       </c>
       <c r="N11" t="s">
         <v>1265</v>
@@ -5205,10 +5253,10 @@
         <v>1265</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="M12" t="s">
-        <v>1401</v>
+        <v>1265</v>
       </c>
       <c r="N12" t="s">
         <v>1265</v>
@@ -5249,10 +5297,10 @@
         <v>1264</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="M13" t="s">
-        <v>1401</v>
+        <v>1264</v>
       </c>
       <c r="N13" t="s">
         <v>1264</v>
@@ -5293,10 +5341,10 @@
         <v>786</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="M14" t="s">
-        <v>1401</v>
+        <v>891</v>
       </c>
       <c r="N14" t="s">
         <v>786</v>
@@ -5337,10 +5385,10 @@
         <v>1270</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="M15" t="s">
-        <v>1401</v>
+        <v>890</v>
       </c>
       <c r="N15" t="s">
         <v>1270</v>
@@ -5381,10 +5429,10 @@
         <v>786</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="M16" t="s">
-        <v>1401</v>
+        <v>883</v>
       </c>
       <c r="N16" t="s">
         <v>786</v>
@@ -5428,7 +5476,7 @@
         <v>786</v>
       </c>
       <c r="M17" t="s">
-        <v>1401</v>
+        <v>786</v>
       </c>
       <c r="N17" t="s">
         <v>786</v>
@@ -5469,10 +5517,10 @@
         <v>787</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M18" t="s">
-        <v>1401</v>
+        <v>1272</v>
       </c>
       <c r="N18" t="s">
         <v>787</v>
@@ -5513,10 +5561,10 @@
         <v>1271</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M19" t="s">
-        <v>1401</v>
+        <v>1272</v>
       </c>
       <c r="N19" t="s">
         <v>1271</v>
@@ -5557,10 +5605,10 @@
         <v>1272</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M20" t="s">
-        <v>1401</v>
+        <v>1272</v>
       </c>
       <c r="N20" t="s">
         <v>1272</v>
@@ -5601,10 +5649,10 @@
         <v>1272</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M21" t="s">
-        <v>1401</v>
+        <v>1272</v>
       </c>
       <c r="N21" t="s">
         <v>1272</v>
@@ -5645,10 +5693,10 @@
         <v>788</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M22" t="s">
-        <v>1401</v>
+        <v>788</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>788</v>
@@ -5689,10 +5737,10 @@
         <v>898</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M23" t="s">
-        <v>1401</v>
+        <v>898</v>
       </c>
       <c r="N23" t="s">
         <v>898</v>
@@ -5733,10 +5781,10 @@
         <v>899</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M24" t="s">
-        <v>1401</v>
+        <v>1272</v>
       </c>
       <c r="N24" t="s">
         <v>899</v>
@@ -5777,10 +5825,10 @@
         <v>1273</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M25" t="s">
-        <v>1401</v>
+        <v>788</v>
       </c>
       <c r="N25" t="s">
         <v>1273</v>
@@ -5821,10 +5869,10 @@
         <v>1274</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M26" t="s">
-        <v>1401</v>
+        <v>788</v>
       </c>
       <c r="N26" s="4" t="s">
         <v>788</v>
@@ -5865,10 +5913,10 @@
         <v>787</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M27" t="s">
-        <v>1401</v>
+        <v>1272</v>
       </c>
       <c r="N27" t="s">
         <v>787</v>
@@ -5909,10 +5957,10 @@
         <v>787</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M28" t="s">
-        <v>1401</v>
+        <v>1272</v>
       </c>
       <c r="N28" t="s">
         <v>787</v>
@@ -5953,10 +6001,10 @@
         <v>789</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M29" t="s">
-        <v>1401</v>
+        <v>789</v>
       </c>
       <c r="N29" t="s">
         <v>789</v>
@@ -5997,10 +6045,10 @@
         <v>1275</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M30" t="s">
-        <v>1401</v>
+        <v>905</v>
       </c>
       <c r="N30" t="s">
         <v>1275</v>
@@ -6041,10 +6089,10 @@
         <v>1276</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M31" t="s">
-        <v>1401</v>
+        <v>906</v>
       </c>
       <c r="N31" t="s">
         <v>1276</v>
@@ -6085,10 +6133,10 @@
         <v>791</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M32" t="s">
-        <v>1401</v>
+        <v>789</v>
       </c>
       <c r="N32" t="s">
         <v>791</v>
@@ -6129,10 +6177,10 @@
         <v>907</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M33" t="s">
-        <v>1401</v>
+        <v>907</v>
       </c>
       <c r="N33" t="s">
         <v>907</v>
@@ -6173,10 +6221,10 @@
         <v>1277</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M34" t="s">
-        <v>1401</v>
+        <v>908</v>
       </c>
       <c r="N34" t="s">
         <v>1277</v>
@@ -6217,10 +6265,10 @@
         <v>1278</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M35" t="s">
-        <v>1401</v>
+        <v>789</v>
       </c>
       <c r="N35" t="s">
         <v>1278</v>
@@ -6261,10 +6309,10 @@
         <v>910</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M36" t="s">
-        <v>1401</v>
+        <v>789</v>
       </c>
       <c r="N36" t="s">
         <v>910</v>
@@ -6305,10 +6353,10 @@
         <v>793</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M37" t="s">
-        <v>1401</v>
+        <v>913</v>
       </c>
       <c r="N37" t="s">
         <v>793</v>
@@ -6349,10 +6397,10 @@
         <v>786</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M38" t="s">
-        <v>1401</v>
+        <v>915</v>
       </c>
       <c r="N38" t="s">
         <v>786</v>
@@ -6393,10 +6441,10 @@
         <v>918</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M39" t="s">
-        <v>1401</v>
+        <v>916</v>
       </c>
       <c r="N39" t="s">
         <v>918</v>
@@ -6437,10 +6485,10 @@
         <v>795</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M40" t="s">
-        <v>1401</v>
+        <v>917</v>
       </c>
       <c r="N40" t="s">
         <v>795</v>
@@ -6481,10 +6529,10 @@
         <v>800</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M41" t="s">
-        <v>1401</v>
+        <v>918</v>
       </c>
       <c r="N41" t="s">
         <v>800</v>
@@ -6525,10 +6573,10 @@
         <v>1279</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M42" t="s">
-        <v>1401</v>
+        <v>919</v>
       </c>
       <c r="N42" t="s">
         <v>1279</v>
@@ -6569,10 +6617,10 @@
         <v>1280</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M43" t="s">
-        <v>1401</v>
+        <v>1281</v>
       </c>
       <c r="N43" t="s">
         <v>1280</v>
@@ -6613,10 +6661,10 @@
         <v>917</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M44" t="s">
-        <v>1401</v>
+        <v>1418</v>
       </c>
       <c r="N44" t="s">
         <v>917</v>
@@ -6657,10 +6705,10 @@
         <v>918</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M45" t="s">
-        <v>1401</v>
+        <v>798</v>
       </c>
       <c r="N45" t="s">
         <v>918</v>
@@ -6701,10 +6749,10 @@
         <v>919</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M46" t="s">
-        <v>1401</v>
+        <v>1282</v>
       </c>
       <c r="N46" t="s">
         <v>919</v>
@@ -6745,10 +6793,10 @@
         <v>800</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M47" t="s">
-        <v>1401</v>
+        <v>927</v>
       </c>
       <c r="N47" t="s">
         <v>800</v>
@@ -6789,10 +6837,10 @@
         <v>1281</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M48" t="s">
-        <v>1401</v>
+        <v>799</v>
       </c>
       <c r="N48" t="s">
         <v>1281</v>
@@ -6833,10 +6881,10 @@
         <v>797</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M49" t="s">
-        <v>1401</v>
+        <v>930</v>
       </c>
       <c r="N49" t="s">
         <v>797</v>
@@ -6877,10 +6925,10 @@
         <v>798</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M50" t="s">
-        <v>1401</v>
+        <v>931</v>
       </c>
       <c r="N50" t="s">
         <v>798</v>
@@ -6921,10 +6969,10 @@
         <v>1282</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M51" t="s">
-        <v>1401</v>
+        <v>932</v>
       </c>
       <c r="N51" t="s">
         <v>1282</v>
@@ -6965,10 +7013,10 @@
         <v>1283</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M52" t="s">
-        <v>1401</v>
+        <v>930</v>
       </c>
       <c r="N52" t="s">
         <v>1283</v>
@@ -7009,10 +7057,10 @@
         <v>1281</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M53" t="s">
-        <v>1401</v>
+        <v>799</v>
       </c>
       <c r="N53" t="s">
         <v>1281</v>
@@ -7053,10 +7101,10 @@
         <v>927</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M54" t="s">
-        <v>1401</v>
+        <v>933</v>
       </c>
       <c r="N54" t="s">
         <v>927</v>
@@ -7097,10 +7145,10 @@
         <v>1284</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M55" t="s">
-        <v>1401</v>
+        <v>800</v>
       </c>
       <c r="N55" t="s">
         <v>1284</v>
@@ -7141,10 +7189,10 @@
         <v>1282</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M56" t="s">
-        <v>1401</v>
+        <v>932</v>
       </c>
       <c r="N56" t="s">
         <v>1282</v>
@@ -7185,10 +7233,10 @@
         <v>1285</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M57" t="s">
-        <v>1401</v>
+        <v>800</v>
       </c>
       <c r="N57" t="s">
         <v>1285</v>
@@ -7229,10 +7277,10 @@
         <v>930</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M58" t="s">
-        <v>1401</v>
+        <v>793</v>
       </c>
       <c r="N58" t="s">
         <v>930</v>
@@ -7273,10 +7321,10 @@
         <v>797</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M59" t="s">
-        <v>1401</v>
+        <v>930</v>
       </c>
       <c r="N59" t="s">
         <v>797</v>
@@ -7317,10 +7365,10 @@
         <v>798</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M60" t="s">
-        <v>1401</v>
+        <v>931</v>
       </c>
       <c r="N60" t="s">
         <v>798</v>
@@ -7361,10 +7409,10 @@
         <v>931</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M61" t="s">
-        <v>1401</v>
+        <v>801</v>
       </c>
       <c r="N61" t="s">
         <v>931</v>
@@ -7405,10 +7453,10 @@
         <v>1286</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M62" t="s">
-        <v>1401</v>
+        <v>1287</v>
       </c>
       <c r="N62" t="s">
         <v>1286</v>
@@ -7449,10 +7497,10 @@
         <v>1282</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="M63" t="s">
-        <v>1401</v>
+        <v>1288</v>
       </c>
       <c r="N63" t="s">
         <v>1282</v>
@@ -7496,7 +7544,7 @@
         <v>800</v>
       </c>
       <c r="M64" t="s">
-        <v>1401</v>
+        <v>1290</v>
       </c>
       <c r="N64" t="s">
         <v>800</v>
@@ -7540,7 +7588,7 @@
         <v>800</v>
       </c>
       <c r="M65" t="s">
-        <v>1401</v>
+        <v>1292</v>
       </c>
       <c r="N65" t="s">
         <v>793</v>
@@ -7581,10 +7629,10 @@
         <v>801</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M66" t="s">
-        <v>1401</v>
+        <v>1419</v>
       </c>
       <c r="N66" t="s">
         <v>801</v>
@@ -7625,10 +7673,10 @@
         <v>1287</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M67" t="s">
-        <v>1401</v>
+        <v>946</v>
       </c>
       <c r="N67" t="s">
         <v>1287</v>
@@ -7669,10 +7717,10 @@
         <v>1288</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M68" t="s">
-        <v>1401</v>
+        <v>804</v>
       </c>
       <c r="N68" t="s">
         <v>1288</v>
@@ -7713,10 +7761,10 @@
         <v>1289</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M69" t="s">
-        <v>1401</v>
+        <v>1419</v>
       </c>
       <c r="N69" t="s">
         <v>1289</v>
@@ -7757,10 +7805,10 @@
         <v>1290</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M70" t="s">
-        <v>1401</v>
+        <v>1420</v>
       </c>
       <c r="N70" t="s">
         <v>1290</v>
@@ -7801,10 +7849,10 @@
         <v>1288</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M71" t="s">
-        <v>1401</v>
+        <v>804</v>
       </c>
       <c r="N71" t="s">
         <v>1288</v>
@@ -7845,10 +7893,10 @@
         <v>1287</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M72" t="s">
-        <v>1401</v>
+        <v>946</v>
       </c>
       <c r="N72" t="s">
         <v>1287</v>
@@ -7889,10 +7937,10 @@
         <v>1291</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M73" t="s">
-        <v>1401</v>
+        <v>959</v>
       </c>
       <c r="N73" t="s">
         <v>1291</v>
@@ -7933,10 +7981,10 @@
         <v>1292</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M74" t="s">
-        <v>1401</v>
+        <v>1419</v>
       </c>
       <c r="N74" t="s">
         <v>1292</v>
@@ -7977,10 +8025,10 @@
         <v>1292</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M75" t="s">
-        <v>1401</v>
+        <v>959</v>
       </c>
       <c r="N75" t="s">
         <v>1292</v>
@@ -8021,10 +8069,10 @@
         <v>946</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M76" t="s">
-        <v>1401</v>
+        <v>1421</v>
       </c>
       <c r="N76" t="s">
         <v>946</v>
@@ -8065,10 +8113,10 @@
         <v>801</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M77" t="s">
-        <v>1401</v>
+        <v>1419</v>
       </c>
       <c r="N77" t="s">
         <v>801</v>
@@ -8109,10 +8157,10 @@
         <v>801</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M78" t="s">
-        <v>1401</v>
+        <v>1419</v>
       </c>
       <c r="N78" t="s">
         <v>801</v>
@@ -8153,10 +8201,10 @@
         <v>949</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M79" t="s">
-        <v>1401</v>
+        <v>1420</v>
       </c>
       <c r="N79" t="s">
         <v>949</v>
@@ -8197,10 +8245,10 @@
         <v>1287</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M80" t="s">
-        <v>1401</v>
+        <v>946</v>
       </c>
       <c r="N80" t="s">
         <v>1287</v>
@@ -8241,10 +8289,10 @@
         <v>803</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M81" t="s">
-        <v>1401</v>
+        <v>965</v>
       </c>
       <c r="N81" t="s">
         <v>803</v>
@@ -8285,10 +8333,10 @@
         <v>804</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M82" t="s">
-        <v>1401</v>
+        <v>965</v>
       </c>
       <c r="N82" t="s">
         <v>804</v>
@@ -8329,10 +8377,10 @@
         <v>1293</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M83" t="s">
-        <v>1401</v>
+        <v>965</v>
       </c>
       <c r="N83" t="s">
         <v>1293</v>
@@ -8373,10 +8421,10 @@
         <v>805</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M84" t="s">
-        <v>1401</v>
+        <v>967</v>
       </c>
       <c r="N84" t="s">
         <v>805</v>
@@ -8417,10 +8465,10 @@
         <v>955</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M85" t="s">
-        <v>1401</v>
+        <v>967</v>
       </c>
       <c r="N85" t="s">
         <v>955</v>
@@ -8461,10 +8509,10 @@
         <v>804</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M86" t="s">
-        <v>1401</v>
+        <v>965</v>
       </c>
       <c r="N86" t="s">
         <v>804</v>
@@ -8505,10 +8553,10 @@
         <v>957</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M87" t="s">
-        <v>1401</v>
+        <v>965</v>
       </c>
       <c r="N87" t="s">
         <v>957</v>
@@ -8549,10 +8597,10 @@
         <v>958</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M88" t="s">
-        <v>1401</v>
+        <v>967</v>
       </c>
       <c r="N88" t="s">
         <v>958</v>
@@ -8593,10 +8641,10 @@
         <v>1294</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M89" t="s">
-        <v>1401</v>
+        <v>808</v>
       </c>
       <c r="N89" t="s">
         <v>1294</v>
@@ -8637,10 +8685,10 @@
         <v>804</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M90" t="s">
-        <v>1401</v>
+        <v>965</v>
       </c>
       <c r="N90" t="s">
         <v>804</v>
@@ -8681,10 +8729,10 @@
         <v>803</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M91" t="s">
-        <v>1401</v>
+        <v>965</v>
       </c>
       <c r="N91" t="s">
         <v>803</v>
@@ -8725,10 +8773,10 @@
         <v>1295</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M92" t="s">
-        <v>1401</v>
+        <v>804</v>
       </c>
       <c r="N92" t="s">
         <v>1295</v>
@@ -8769,10 +8817,10 @@
         <v>1295</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M93" t="s">
-        <v>1401</v>
+        <v>804</v>
       </c>
       <c r="N93" t="s">
         <v>1295</v>
@@ -8813,10 +8861,10 @@
         <v>807</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M94" t="s">
-        <v>1401</v>
+        <v>971</v>
       </c>
       <c r="N94" t="s">
         <v>807</v>
@@ -8857,10 +8905,10 @@
         <v>965</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M95" t="s">
-        <v>1401</v>
+        <v>974</v>
       </c>
       <c r="N95" t="s">
         <v>965</v>
@@ -8901,10 +8949,10 @@
         <v>807</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M96" t="s">
-        <v>1401</v>
+        <v>971</v>
       </c>
       <c r="N96" t="s">
         <v>807</v>
@@ -8945,10 +8993,10 @@
         <v>1295</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M97" t="s">
-        <v>1401</v>
+        <v>975</v>
       </c>
       <c r="N97" t="s">
         <v>1295</v>
@@ -8989,10 +9037,10 @@
         <v>968</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M98" t="s">
-        <v>1401</v>
+        <v>971</v>
       </c>
       <c r="N98" t="s">
         <v>968</v>
@@ -9033,10 +9081,10 @@
         <v>807</v>
       </c>
       <c r="L99" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M99" t="s">
-        <v>1401</v>
+        <v>971</v>
       </c>
       <c r="N99" t="s">
         <v>807</v>
@@ -9077,10 +9125,10 @@
         <v>808</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M100" t="s">
-        <v>1401</v>
+        <v>809</v>
       </c>
       <c r="N100" t="s">
         <v>808</v>
@@ -9121,10 +9169,10 @@
         <v>971</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M101" t="s">
-        <v>1401</v>
+        <v>809</v>
       </c>
       <c r="N101" t="s">
         <v>971</v>
@@ -9165,10 +9213,10 @@
         <v>808</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M102" t="s">
-        <v>1401</v>
+        <v>1298</v>
       </c>
       <c r="N102" t="s">
         <v>808</v>
@@ -9209,10 +9257,10 @@
         <v>973</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M103" t="s">
-        <v>1401</v>
+        <v>811</v>
       </c>
       <c r="N103" t="s">
         <v>973</v>
@@ -9253,10 +9301,10 @@
         <v>1296</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M104" t="s">
-        <v>1401</v>
+        <v>809</v>
       </c>
       <c r="N104" t="s">
         <v>1296</v>
@@ -9297,10 +9345,10 @@
         <v>1297</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M105" t="s">
-        <v>1401</v>
+        <v>1298</v>
       </c>
       <c r="N105" t="s">
         <v>1297</v>
@@ -9341,10 +9389,10 @@
         <v>809</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M106" t="s">
-        <v>1401</v>
+        <v>811</v>
       </c>
       <c r="N106" t="s">
         <v>809</v>
@@ -9385,10 +9433,10 @@
         <v>1298</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M107" t="s">
-        <v>1401</v>
+        <v>1299</v>
       </c>
       <c r="N107" t="s">
         <v>1298</v>
@@ -9429,10 +9477,10 @@
         <v>811</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M108" t="s">
-        <v>1401</v>
+        <v>982</v>
       </c>
       <c r="N108" t="s">
         <v>811</v>
@@ -9473,10 +9521,10 @@
         <v>1299</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M109" t="s">
-        <v>1401</v>
+        <v>983</v>
       </c>
       <c r="N109" t="s">
         <v>1299</v>
@@ -9517,10 +9565,10 @@
         <v>811</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M110" t="s">
-        <v>1401</v>
+        <v>982</v>
       </c>
       <c r="N110" t="s">
         <v>811</v>
@@ -9561,10 +9609,10 @@
         <v>1295</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M111" t="s">
-        <v>1401</v>
+        <v>1299</v>
       </c>
       <c r="N111" t="s">
         <v>1295</v>
@@ -9605,10 +9653,10 @@
         <v>1300</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M112" t="s">
-        <v>1401</v>
+        <v>983</v>
       </c>
       <c r="N112" t="s">
         <v>1300</v>
@@ -9649,10 +9697,10 @@
         <v>1301</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M113" t="s">
-        <v>1401</v>
+        <v>984</v>
       </c>
       <c r="N113" t="s">
         <v>1301</v>
@@ -9693,10 +9741,10 @@
         <v>1302</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M114" t="s">
-        <v>1401</v>
+        <v>985</v>
       </c>
       <c r="N114" t="s">
         <v>1302</v>
@@ -9737,10 +9785,10 @@
         <v>984</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M115" t="s">
-        <v>1401</v>
+        <v>986</v>
       </c>
       <c r="N115" t="s">
         <v>984</v>
@@ -9781,10 +9829,10 @@
         <v>813</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M116" t="s">
-        <v>1401</v>
+        <v>1422</v>
       </c>
       <c r="N116" t="s">
         <v>813</v>
@@ -9825,10 +9873,10 @@
         <v>986</v>
       </c>
       <c r="L117" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M117" t="s">
-        <v>1401</v>
+        <v>1305</v>
       </c>
       <c r="N117" t="s">
         <v>986</v>
@@ -9869,10 +9917,10 @@
         <v>811</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="M118" t="s">
-        <v>1401</v>
+        <v>982</v>
       </c>
       <c r="N118" t="s">
         <v>811</v>
@@ -9913,10 +9961,10 @@
         <v>1303</v>
       </c>
       <c r="L119" s="5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="M119" t="s">
-        <v>1401</v>
+        <v>998</v>
       </c>
       <c r="N119" t="s">
         <v>1303</v>
@@ -9957,10 +10005,10 @@
         <v>1304</v>
       </c>
       <c r="L120" s="5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="M120" t="s">
-        <v>1401</v>
+        <v>998</v>
       </c>
       <c r="N120" t="s">
         <v>1304</v>
@@ -10001,10 +10049,10 @@
         <v>1304</v>
       </c>
       <c r="L121" s="5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="M121" t="s">
-        <v>1401</v>
+        <v>998</v>
       </c>
       <c r="N121" t="s">
         <v>1304</v>
@@ -10045,10 +10093,10 @@
         <v>1305</v>
       </c>
       <c r="L122" s="5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="M122" t="s">
-        <v>1401</v>
+        <v>1002</v>
       </c>
       <c r="N122" t="s">
         <v>1305</v>
@@ -10089,10 +10137,10 @@
         <v>1065</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="M123" t="s">
-        <v>1401</v>
+        <v>1004</v>
       </c>
       <c r="N123" t="s">
         <v>1065</v>
@@ -10133,10 +10181,10 @@
         <v>1303</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="M124" t="s">
-        <v>1401</v>
+        <v>998</v>
       </c>
       <c r="N124" t="s">
         <v>1303</v>
@@ -10177,10 +10225,10 @@
         <v>1304</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="M125" t="s">
-        <v>1401</v>
+        <v>998</v>
       </c>
       <c r="N125" t="s">
         <v>1304</v>
@@ -10221,10 +10269,10 @@
         <v>1304</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="M126" t="s">
-        <v>1401</v>
+        <v>998</v>
       </c>
       <c r="N126" t="s">
         <v>1304</v>
@@ -10265,10 +10313,10 @@
         <v>1306</v>
       </c>
       <c r="L127" s="5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="M127" t="s">
-        <v>1401</v>
+        <v>998</v>
       </c>
       <c r="N127" t="s">
         <v>1306</v>
@@ -10309,10 +10357,10 @@
         <v>1304</v>
       </c>
       <c r="L128" s="5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="M128" t="s">
-        <v>1401</v>
+        <v>998</v>
       </c>
       <c r="N128" t="s">
         <v>1304</v>
@@ -10353,10 +10401,10 @@
         <v>1307</v>
       </c>
       <c r="L129" s="5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="M129" t="s">
-        <v>1401</v>
+        <v>1005</v>
       </c>
       <c r="N129" t="s">
         <v>1307</v>
@@ -10397,10 +10445,10 @@
         <v>1304</v>
       </c>
       <c r="L130" s="5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="M130" t="s">
-        <v>1401</v>
+        <v>998</v>
       </c>
       <c r="N130" t="s">
         <v>1304</v>
@@ -10441,10 +10489,10 @@
         <v>1305</v>
       </c>
       <c r="L131" s="5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="M131" t="s">
-        <v>1401</v>
+        <v>1002</v>
       </c>
       <c r="N131" t="s">
         <v>1305</v>
@@ -10485,10 +10533,10 @@
         <v>1304</v>
       </c>
       <c r="L132" s="5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="M132" t="s">
-        <v>1401</v>
+        <v>998</v>
       </c>
       <c r="N132" t="s">
         <v>1304</v>
@@ -10529,10 +10577,10 @@
         <v>1002</v>
       </c>
       <c r="L133" s="5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="M133" t="s">
-        <v>1401</v>
+        <v>1006</v>
       </c>
       <c r="N133" t="s">
         <v>1002</v>
@@ -10573,10 +10621,10 @@
         <v>1308</v>
       </c>
       <c r="L134" s="5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="M134" t="s">
-        <v>1401</v>
+        <v>1006</v>
       </c>
       <c r="N134" t="s">
         <v>1308</v>
@@ -10617,10 +10665,10 @@
         <v>1309</v>
       </c>
       <c r="L135" s="5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="M135" t="s">
-        <v>1401</v>
+        <v>1010</v>
       </c>
       <c r="N135" t="s">
         <v>1309</v>
@@ -10661,10 +10709,10 @@
         <v>1310</v>
       </c>
       <c r="L136" s="5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="M136" t="s">
-        <v>1401</v>
+        <v>1008</v>
       </c>
       <c r="N136" t="s">
         <v>1310</v>
@@ -10705,10 +10753,10 @@
         <v>1311</v>
       </c>
       <c r="L137" s="5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="M137" t="s">
-        <v>1401</v>
+        <v>1009</v>
       </c>
       <c r="N137" t="s">
         <v>1311</v>
@@ -10749,10 +10797,10 @@
         <v>1010</v>
       </c>
       <c r="L138" s="5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="M138" t="s">
-        <v>1401</v>
+        <v>1012</v>
       </c>
       <c r="N138" t="s">
         <v>1010</v>
@@ -10793,10 +10841,10 @@
         <v>1008</v>
       </c>
       <c r="L139" s="5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="M139" t="s">
-        <v>1401</v>
+        <v>1013</v>
       </c>
       <c r="N139" t="s">
         <v>1008</v>
@@ -10837,10 +10885,10 @@
         <v>1312</v>
       </c>
       <c r="L140" s="5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="M140" t="s">
-        <v>1401</v>
+        <v>1316</v>
       </c>
       <c r="N140" t="s">
         <v>1312</v>
@@ -10881,10 +10929,10 @@
         <v>1010</v>
       </c>
       <c r="L141" s="5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="M141" t="s">
-        <v>1401</v>
+        <v>1012</v>
       </c>
       <c r="N141" t="s">
         <v>1010</v>
@@ -10925,10 +10973,10 @@
         <v>1313</v>
       </c>
       <c r="L142" s="5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="M142" t="s">
-        <v>1401</v>
+        <v>1012</v>
       </c>
       <c r="N142" t="s">
         <v>1313</v>
@@ -10969,10 +11017,10 @@
         <v>1314</v>
       </c>
       <c r="L143" s="5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="M143" t="s">
-        <v>1401</v>
+        <v>1015</v>
       </c>
       <c r="N143" t="s">
         <v>1314</v>
@@ -11013,10 +11061,10 @@
         <v>1315</v>
       </c>
       <c r="L144" s="5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="M144" t="s">
-        <v>1401</v>
+        <v>1016</v>
       </c>
       <c r="N144" t="s">
         <v>1315</v>
@@ -11057,10 +11105,10 @@
         <v>1316</v>
       </c>
       <c r="L145" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M145" t="s">
-        <v>1401</v>
+        <v>1017</v>
       </c>
       <c r="N145" t="s">
         <v>1316</v>
@@ -11101,10 +11149,10 @@
         <v>1015</v>
       </c>
       <c r="L146" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M146" t="s">
-        <v>1401</v>
+        <v>1018</v>
       </c>
       <c r="N146" t="s">
         <v>1015</v>
@@ -11145,10 +11193,10 @@
         <v>1317</v>
       </c>
       <c r="L147" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M147" t="s">
-        <v>1401</v>
+        <v>1019</v>
       </c>
       <c r="N147" t="s">
         <v>1317</v>
@@ -11189,10 +11237,10 @@
         <v>1017</v>
       </c>
       <c r="L148" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M148" t="s">
-        <v>1401</v>
+        <v>1423</v>
       </c>
       <c r="N148" t="s">
         <v>1017</v>
@@ -11233,10 +11281,10 @@
         <v>1318</v>
       </c>
       <c r="L149" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M149" t="s">
-        <v>1401</v>
+        <v>1021</v>
       </c>
       <c r="N149" t="s">
         <v>1318</v>
@@ -11277,10 +11325,10 @@
         <v>1319</v>
       </c>
       <c r="L150" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M150" t="s">
-        <v>1401</v>
+        <v>1017</v>
       </c>
       <c r="N150" t="s">
         <v>1319</v>
@@ -11321,10 +11369,10 @@
         <v>1316</v>
       </c>
       <c r="L151" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M151" t="s">
-        <v>1401</v>
+        <v>1017</v>
       </c>
       <c r="N151" t="s">
         <v>1316</v>
@@ -11365,10 +11413,10 @@
         <v>1021</v>
       </c>
       <c r="L152" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M152" t="s">
-        <v>1401</v>
+        <v>1022</v>
       </c>
       <c r="N152" t="s">
         <v>1021</v>
@@ -11409,10 +11457,10 @@
         <v>1320</v>
       </c>
       <c r="L153" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M153" t="s">
-        <v>1401</v>
+        <v>1024</v>
       </c>
       <c r="N153" t="s">
         <v>1320</v>
@@ -11453,10 +11501,10 @@
         <v>1316</v>
       </c>
       <c r="L154" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M154" t="s">
-        <v>1401</v>
+        <v>1017</v>
       </c>
       <c r="N154" t="s">
         <v>1316</v>
@@ -11497,10 +11545,10 @@
         <v>1321</v>
       </c>
       <c r="L155" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M155" t="s">
-        <v>1401</v>
+        <v>821</v>
       </c>
       <c r="N155" t="s">
         <v>1321</v>
@@ -11541,10 +11589,10 @@
         <v>821</v>
       </c>
       <c r="L156" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M156" t="s">
-        <v>1401</v>
+        <v>1026</v>
       </c>
       <c r="N156" t="s">
         <v>821</v>
@@ -11585,10 +11633,10 @@
         <v>1026</v>
       </c>
       <c r="L157" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M157" t="s">
-        <v>1401</v>
+        <v>1027</v>
       </c>
       <c r="N157" t="s">
         <v>1026</v>
@@ -11629,10 +11677,10 @@
         <v>1322</v>
       </c>
       <c r="L158" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M158" t="s">
-        <v>1401</v>
+        <v>1028</v>
       </c>
       <c r="N158" t="s">
         <v>1322</v>
@@ -11673,10 +11721,10 @@
         <v>1323</v>
       </c>
       <c r="L159" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M159" t="s">
-        <v>1401</v>
+        <v>1044</v>
       </c>
       <c r="N159" t="s">
         <v>1323</v>
@@ -11717,10 +11765,10 @@
         <v>821</v>
       </c>
       <c r="L160" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M160" t="s">
-        <v>1401</v>
+        <v>1026</v>
       </c>
       <c r="N160" t="s">
         <v>821</v>
@@ -11761,10 +11809,10 @@
         <v>1324</v>
       </c>
       <c r="L161" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M161" t="s">
-        <v>1401</v>
+        <v>1424</v>
       </c>
       <c r="N161" t="s">
         <v>1324</v>
@@ -11805,10 +11853,10 @@
         <v>1044</v>
       </c>
       <c r="L162" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M162" t="s">
-        <v>1401</v>
+        <v>1327</v>
       </c>
       <c r="N162" t="s">
         <v>1044</v>
@@ -11849,10 +11897,10 @@
         <v>1325</v>
       </c>
       <c r="L163" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M163" t="s">
-        <v>1401</v>
+        <v>1055</v>
       </c>
       <c r="N163" t="s">
         <v>1325</v>
@@ -11893,10 +11941,10 @@
         <v>1324</v>
       </c>
       <c r="L164" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M164" t="s">
-        <v>1401</v>
+        <v>1424</v>
       </c>
       <c r="N164" t="s">
         <v>1324</v>
@@ -11937,10 +11985,10 @@
         <v>1326</v>
       </c>
       <c r="L165" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M165" t="s">
-        <v>1401</v>
+        <v>1423</v>
       </c>
       <c r="N165" t="s">
         <v>1326</v>
@@ -11981,10 +12029,10 @@
         <v>1324</v>
       </c>
       <c r="L166" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M166" t="s">
-        <v>1401</v>
+        <v>1424</v>
       </c>
       <c r="N166" t="s">
         <v>1324</v>
@@ -12025,10 +12073,10 @@
         <v>1327</v>
       </c>
       <c r="L167" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M167" t="s">
-        <v>1401</v>
+        <v>1040</v>
       </c>
       <c r="N167" t="s">
         <v>1327</v>
@@ -12069,10 +12117,10 @@
         <v>1324</v>
       </c>
       <c r="L168" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M168" t="s">
-        <v>1401</v>
+        <v>1424</v>
       </c>
       <c r="N168" t="s">
         <v>1324</v>
@@ -12113,10 +12161,10 @@
         <v>1040</v>
       </c>
       <c r="L169" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M169" t="s">
-        <v>1401</v>
+        <v>1042</v>
       </c>
       <c r="N169" t="s">
         <v>1040</v>
@@ -12157,10 +12205,10 @@
         <v>1327</v>
       </c>
       <c r="L170" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M170" t="s">
-        <v>1401</v>
+        <v>824</v>
       </c>
       <c r="N170" t="s">
         <v>1327</v>
@@ -12201,10 +12249,10 @@
         <v>1040</v>
       </c>
       <c r="L171" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M171" t="s">
-        <v>1401</v>
+        <v>1423</v>
       </c>
       <c r="N171" t="s">
         <v>1040</v>
@@ -12245,10 +12293,10 @@
         <v>1324</v>
       </c>
       <c r="L172" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M172" t="s">
-        <v>1401</v>
+        <v>1424</v>
       </c>
       <c r="N172" t="s">
         <v>1324</v>
@@ -12289,10 +12337,10 @@
         <v>1044</v>
       </c>
       <c r="L173" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M173" t="s">
-        <v>1401</v>
+        <v>1052</v>
       </c>
       <c r="N173" t="s">
         <v>1044</v>
@@ -12333,10 +12381,10 @@
         <v>1043</v>
       </c>
       <c r="L174" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M174" t="s">
-        <v>1401</v>
+        <v>1055</v>
       </c>
       <c r="N174" t="s">
         <v>1043</v>
@@ -12377,10 +12425,10 @@
         <v>1044</v>
       </c>
       <c r="L175" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M175" t="s">
-        <v>1401</v>
+        <v>1327</v>
       </c>
       <c r="N175" t="s">
         <v>1044</v>
@@ -12421,10 +12469,10 @@
         <v>1044</v>
       </c>
       <c r="L176" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M176" t="s">
-        <v>1401</v>
+        <v>1327</v>
       </c>
       <c r="N176" t="s">
         <v>1044</v>
@@ -12465,10 +12513,10 @@
         <v>1325</v>
       </c>
       <c r="L177" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M177" t="s">
-        <v>1401</v>
+        <v>1055</v>
       </c>
       <c r="N177" t="s">
         <v>1325</v>
@@ -12509,10 +12557,10 @@
         <v>1324</v>
       </c>
       <c r="L178" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M178" t="s">
-        <v>1401</v>
+        <v>1424</v>
       </c>
       <c r="N178" t="s">
         <v>1324</v>
@@ -12553,10 +12601,10 @@
         <v>1326</v>
       </c>
       <c r="L179" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M179" t="s">
-        <v>1401</v>
+        <v>1423</v>
       </c>
       <c r="N179" t="s">
         <v>1326</v>
@@ -12597,10 +12645,10 @@
         <v>1327</v>
       </c>
       <c r="L180" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="M180" t="s">
-        <v>1401</v>
+        <v>1040</v>
       </c>
       <c r="N180" t="s">
         <v>1327</v>
@@ -12641,10 +12689,10 @@
         <v>824</v>
       </c>
       <c r="L181" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M181" t="s">
-        <v>1401</v>
+        <v>1056</v>
       </c>
       <c r="N181" t="s">
         <v>824</v>
@@ -12685,10 +12733,10 @@
         <v>824</v>
       </c>
       <c r="L182" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M182" t="s">
-        <v>1401</v>
+        <v>1056</v>
       </c>
       <c r="N182" t="s">
         <v>824</v>
@@ -12729,10 +12777,10 @@
         <v>824</v>
       </c>
       <c r="L183" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M183" t="s">
-        <v>1401</v>
+        <v>1056</v>
       </c>
       <c r="N183" t="s">
         <v>824</v>
@@ -12773,10 +12821,10 @@
         <v>1052</v>
       </c>
       <c r="L184" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M184" t="s">
-        <v>1401</v>
+        <v>1056</v>
       </c>
       <c r="N184" t="s">
         <v>1052</v>
@@ -12817,10 +12865,10 @@
         <v>824</v>
       </c>
       <c r="L185" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M185" t="s">
-        <v>1401</v>
+        <v>1056</v>
       </c>
       <c r="N185" t="s">
         <v>824</v>
@@ -12861,10 +12909,10 @@
         <v>824</v>
       </c>
       <c r="L186" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M186" t="s">
-        <v>1401</v>
+        <v>1056</v>
       </c>
       <c r="N186" t="s">
         <v>824</v>
@@ -12905,10 +12953,10 @@
         <v>1055</v>
       </c>
       <c r="L187" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M187" t="s">
-        <v>1401</v>
+        <v>1057</v>
       </c>
       <c r="N187" t="s">
         <v>1055</v>
@@ -12949,10 +12997,10 @@
         <v>1055</v>
       </c>
       <c r="L188" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M188" t="s">
-        <v>1401</v>
+        <v>1057</v>
       </c>
       <c r="N188" t="s">
         <v>1055</v>
@@ -12993,10 +13041,10 @@
         <v>1057</v>
       </c>
       <c r="L189" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M189" t="s">
-        <v>1401</v>
+        <v>1058</v>
       </c>
       <c r="N189" t="s">
         <v>1057</v>
@@ -13037,10 +13085,10 @@
         <v>1057</v>
       </c>
       <c r="L190" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M190" t="s">
-        <v>1401</v>
+        <v>1059</v>
       </c>
       <c r="N190" t="s">
         <v>1057</v>
@@ -13081,10 +13129,10 @@
         <v>1328</v>
       </c>
       <c r="L191" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M191" t="s">
-        <v>1401</v>
+        <v>1060</v>
       </c>
       <c r="N191" t="s">
         <v>1328</v>
@@ -13125,10 +13173,10 @@
         <v>1059</v>
       </c>
       <c r="L192" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M192" t="s">
-        <v>1401</v>
+        <v>1061</v>
       </c>
       <c r="N192" t="s">
         <v>1059</v>
@@ -13169,10 +13217,10 @@
         <v>1329</v>
       </c>
       <c r="L193" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M193" t="s">
-        <v>1401</v>
+        <v>1062</v>
       </c>
       <c r="N193" t="s">
         <v>1329</v>
@@ -13213,10 +13261,10 @@
         <v>1061</v>
       </c>
       <c r="L194" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M194" t="s">
-        <v>1401</v>
+        <v>1065</v>
       </c>
       <c r="N194" t="s">
         <v>1061</v>
@@ -13257,10 +13305,10 @@
         <v>1062</v>
       </c>
       <c r="L195" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M195" t="s">
-        <v>1401</v>
+        <v>1066</v>
       </c>
       <c r="N195" t="s">
         <v>1062</v>
@@ -13301,10 +13349,10 @@
         <v>1062</v>
       </c>
       <c r="L196" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M196" t="s">
-        <v>1401</v>
+        <v>1066</v>
       </c>
       <c r="N196" t="s">
         <v>1062</v>
@@ -13345,10 +13393,10 @@
         <v>1061</v>
       </c>
       <c r="L197" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M197" t="s">
-        <v>1401</v>
+        <v>1065</v>
       </c>
       <c r="N197" t="s">
         <v>1061</v>
@@ -13389,10 +13437,10 @@
         <v>1064</v>
       </c>
       <c r="L198" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M198" t="s">
-        <v>1401</v>
+        <v>1068</v>
       </c>
       <c r="N198" t="s">
         <v>1064</v>
@@ -13433,10 +13481,10 @@
         <v>1065</v>
       </c>
       <c r="L199" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M199" t="s">
-        <v>1401</v>
+        <v>1068</v>
       </c>
       <c r="N199" t="s">
         <v>1065</v>
@@ -13477,10 +13525,10 @@
         <v>1330</v>
       </c>
       <c r="L200" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M200" t="s">
-        <v>1401</v>
+        <v>1057</v>
       </c>
       <c r="N200" t="s">
         <v>1330</v>
@@ -13521,10 +13569,10 @@
         <v>1064</v>
       </c>
       <c r="L201" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M201" t="s">
-        <v>1401</v>
+        <v>1068</v>
       </c>
       <c r="N201" t="s">
         <v>1064</v>
@@ -13565,10 +13613,10 @@
         <v>1068</v>
       </c>
       <c r="L202" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M202" t="s">
-        <v>1401</v>
+        <v>1069</v>
       </c>
       <c r="N202" t="s">
         <v>1068</v>
@@ -13609,10 +13657,10 @@
         <v>1069</v>
       </c>
       <c r="L203" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M203" t="s">
-        <v>1401</v>
+        <v>1071</v>
       </c>
       <c r="N203" t="s">
         <v>1069</v>
@@ -13653,10 +13701,10 @@
         <v>1068</v>
       </c>
       <c r="L204" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M204" t="s">
-        <v>1401</v>
+        <v>1069</v>
       </c>
       <c r="N204" t="s">
         <v>1068</v>
@@ -13697,10 +13745,10 @@
         <v>1071</v>
       </c>
       <c r="L205" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M205" t="s">
-        <v>1401</v>
+        <v>1072</v>
       </c>
       <c r="N205" t="s">
         <v>1071</v>
@@ -13741,10 +13789,10 @@
         <v>1331</v>
       </c>
       <c r="L206" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M206" t="s">
-        <v>1401</v>
+        <v>1075</v>
       </c>
       <c r="N206" t="s">
         <v>1331</v>
@@ -13785,10 +13833,10 @@
         <v>1331</v>
       </c>
       <c r="L207" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M207" t="s">
-        <v>1401</v>
+        <v>1075</v>
       </c>
       <c r="N207" t="s">
         <v>1331</v>
@@ -13829,10 +13877,10 @@
         <v>1331</v>
       </c>
       <c r="L208" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M208" t="s">
-        <v>1401</v>
+        <v>1075</v>
       </c>
       <c r="N208" t="s">
         <v>1331</v>
@@ -13873,10 +13921,10 @@
         <v>1332</v>
       </c>
       <c r="L209" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M209" t="s">
-        <v>1401</v>
+        <v>1076</v>
       </c>
       <c r="N209" t="s">
         <v>1332</v>
@@ -13917,10 +13965,10 @@
         <v>1076</v>
       </c>
       <c r="L210" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M210" t="s">
-        <v>1401</v>
+        <v>1077</v>
       </c>
       <c r="N210" t="s">
         <v>1076</v>
@@ -13961,10 +14009,10 @@
         <v>1333</v>
       </c>
       <c r="L211" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M211" t="s">
-        <v>1401</v>
+        <v>1078</v>
       </c>
       <c r="N211" t="s">
         <v>1333</v>
@@ -14005,10 +14053,10 @@
         <v>1078</v>
       </c>
       <c r="L212" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M212" t="s">
-        <v>1401</v>
+        <v>1079</v>
       </c>
       <c r="N212" t="s">
         <v>1078</v>
@@ -14049,10 +14097,10 @@
         <v>1079</v>
       </c>
       <c r="L213" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M213" t="s">
-        <v>1401</v>
+        <v>1080</v>
       </c>
       <c r="N213" t="s">
         <v>1079</v>
@@ -14093,10 +14141,10 @@
         <v>1080</v>
       </c>
       <c r="L214" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M214" t="s">
-        <v>1401</v>
+        <v>1081</v>
       </c>
       <c r="N214" t="s">
         <v>1080</v>
@@ -14137,10 +14185,10 @@
         <v>1081</v>
       </c>
       <c r="L215" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M215" t="s">
-        <v>1401</v>
+        <v>1082</v>
       </c>
       <c r="N215" t="s">
         <v>1081</v>
@@ -14181,10 +14229,10 @@
         <v>1334</v>
       </c>
       <c r="L216" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M216" t="s">
-        <v>1401</v>
+        <v>1084</v>
       </c>
       <c r="N216" t="s">
         <v>1334</v>
@@ -14225,10 +14273,10 @@
         <v>1334</v>
       </c>
       <c r="L217" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M217" t="s">
-        <v>1401</v>
+        <v>1084</v>
       </c>
       <c r="N217" t="s">
         <v>1334</v>
@@ -14269,10 +14317,10 @@
         <v>1335</v>
       </c>
       <c r="L218" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M218" t="s">
-        <v>1401</v>
+        <v>1085</v>
       </c>
       <c r="N218" t="s">
         <v>1335</v>
@@ -14313,10 +14361,10 @@
         <v>1085</v>
       </c>
       <c r="L219" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M219" t="s">
-        <v>1401</v>
+        <v>1087</v>
       </c>
       <c r="N219" t="s">
         <v>1085</v>
@@ -14357,10 +14405,10 @@
         <v>1085</v>
       </c>
       <c r="L220" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M220" t="s">
-        <v>1401</v>
+        <v>1087</v>
       </c>
       <c r="N220" t="s">
         <v>1085</v>
@@ -14401,10 +14449,10 @@
         <v>1087</v>
       </c>
       <c r="L221" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M221" t="s">
-        <v>1401</v>
+        <v>1088</v>
       </c>
       <c r="N221" t="s">
         <v>1087</v>
@@ -14445,10 +14493,10 @@
         <v>1336</v>
       </c>
       <c r="L222" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M222" t="s">
-        <v>1401</v>
+        <v>1089</v>
       </c>
       <c r="N222" t="s">
         <v>1336</v>
@@ -14489,10 +14537,10 @@
         <v>1089</v>
       </c>
       <c r="L223" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M223" t="s">
-        <v>1401</v>
+        <v>1090</v>
       </c>
       <c r="N223" t="s">
         <v>1089</v>
@@ -14533,10 +14581,10 @@
         <v>1090</v>
       </c>
       <c r="L224" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M224" t="s">
-        <v>1401</v>
+        <v>836</v>
       </c>
       <c r="N224" t="s">
         <v>1090</v>
@@ -14577,10 +14625,10 @@
         <v>836</v>
       </c>
       <c r="L225" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M225" t="s">
-        <v>1401</v>
+        <v>837</v>
       </c>
       <c r="N225" t="s">
         <v>836</v>
@@ -14621,10 +14669,10 @@
         <v>837</v>
       </c>
       <c r="L226" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M226" t="s">
-        <v>1401</v>
+        <v>1109</v>
       </c>
       <c r="N226" t="s">
         <v>837</v>
@@ -14665,10 +14713,10 @@
         <v>1109</v>
       </c>
       <c r="L227" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M227" t="s">
-        <v>1401</v>
+        <v>1094</v>
       </c>
       <c r="N227" t="s">
         <v>1109</v>
@@ -14709,10 +14757,10 @@
         <v>1337</v>
       </c>
       <c r="L228" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M228" t="s">
-        <v>1401</v>
+        <v>1095</v>
       </c>
       <c r="N228" t="s">
         <v>1337</v>
@@ -14753,10 +14801,10 @@
         <v>1338</v>
       </c>
       <c r="L229" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M229" t="s">
-        <v>1401</v>
+        <v>1098</v>
       </c>
       <c r="N229" t="s">
         <v>1338</v>
@@ -14797,10 +14845,10 @@
         <v>1339</v>
       </c>
       <c r="L230" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M230" t="s">
-        <v>1401</v>
+        <v>1109</v>
       </c>
       <c r="N230" t="s">
         <v>1339</v>
@@ -14841,10 +14889,10 @@
         <v>837</v>
       </c>
       <c r="L231" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M231" t="s">
-        <v>1401</v>
+        <v>1109</v>
       </c>
       <c r="N231" t="s">
         <v>837</v>
@@ -14885,10 +14933,10 @@
         <v>837</v>
       </c>
       <c r="L232" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M232" t="s">
-        <v>1401</v>
+        <v>1103</v>
       </c>
       <c r="N232" t="s">
         <v>837</v>
@@ -14929,10 +14977,10 @@
         <v>836</v>
       </c>
       <c r="L233" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M233" t="s">
-        <v>1401</v>
+        <v>837</v>
       </c>
       <c r="N233" t="s">
         <v>836</v>
@@ -14973,10 +15021,10 @@
         <v>837</v>
       </c>
       <c r="L234" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M234" t="s">
-        <v>1401</v>
+        <v>1109</v>
       </c>
       <c r="N234" t="s">
         <v>837</v>
@@ -15017,10 +15065,10 @@
         <v>837</v>
       </c>
       <c r="L235" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M235" t="s">
-        <v>1401</v>
+        <v>1109</v>
       </c>
       <c r="N235" t="s">
         <v>837</v>
@@ -15061,10 +15109,10 @@
         <v>837</v>
       </c>
       <c r="L236" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M236" t="s">
-        <v>1401</v>
+        <v>1109</v>
       </c>
       <c r="N236" t="s">
         <v>837</v>
@@ -15105,10 +15153,10 @@
         <v>1103</v>
       </c>
       <c r="L237" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M237" t="s">
-        <v>1401</v>
+        <v>1104</v>
       </c>
       <c r="N237" t="s">
         <v>1103</v>
@@ -15149,10 +15197,10 @@
         <v>1340</v>
       </c>
       <c r="L238" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M238" t="s">
-        <v>1401</v>
+        <v>1105</v>
       </c>
       <c r="N238" t="s">
         <v>1340</v>
@@ -15193,10 +15241,10 @@
         <v>1339</v>
       </c>
       <c r="L239" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M239" t="s">
-        <v>1401</v>
+        <v>1106</v>
       </c>
       <c r="N239" t="s">
         <v>1339</v>
@@ -15237,10 +15285,10 @@
         <v>1341</v>
       </c>
       <c r="L240" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M240" t="s">
-        <v>1401</v>
+        <v>1111</v>
       </c>
       <c r="N240" t="s">
         <v>1341</v>
@@ -15281,10 +15329,10 @@
         <v>837</v>
       </c>
       <c r="L241" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M241" t="s">
-        <v>1401</v>
+        <v>1109</v>
       </c>
       <c r="N241" t="s">
         <v>837</v>
@@ -15325,10 +15373,10 @@
         <v>836</v>
       </c>
       <c r="L242" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M242" t="s">
-        <v>1401</v>
+        <v>837</v>
       </c>
       <c r="N242" t="s">
         <v>836</v>
@@ -15369,10 +15417,10 @@
         <v>836</v>
       </c>
       <c r="L243" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M243" t="s">
-        <v>1401</v>
+        <v>837</v>
       </c>
       <c r="N243" t="s">
         <v>836</v>
@@ -15413,10 +15461,10 @@
         <v>1109</v>
       </c>
       <c r="L244" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M244" t="s">
-        <v>1401</v>
+        <v>1094</v>
       </c>
       <c r="N244" t="s">
         <v>1109</v>
@@ -15457,10 +15505,10 @@
         <v>837</v>
       </c>
       <c r="L245" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M245" t="s">
-        <v>1401</v>
+        <v>1109</v>
       </c>
       <c r="N245" t="s">
         <v>837</v>
@@ -15501,10 +15549,10 @@
         <v>1111</v>
       </c>
       <c r="L246" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M246" t="s">
-        <v>1401</v>
+        <v>1112</v>
       </c>
       <c r="N246" t="s">
         <v>1111</v>
@@ -15545,10 +15593,10 @@
         <v>1342</v>
       </c>
       <c r="L247" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M247" t="s">
-        <v>1401</v>
+        <v>840</v>
       </c>
       <c r="N247" t="s">
         <v>1342</v>
@@ -15589,10 +15637,10 @@
         <v>840</v>
       </c>
       <c r="L248" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M248" t="s">
-        <v>1401</v>
+        <v>1119</v>
       </c>
       <c r="N248" t="s">
         <v>840</v>
@@ -15633,10 +15681,10 @@
         <v>1119</v>
       </c>
       <c r="L249" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M249" t="s">
-        <v>1401</v>
+        <v>1343</v>
       </c>
       <c r="N249" t="s">
         <v>1119</v>
@@ -15677,10 +15725,10 @@
         <v>1343</v>
       </c>
       <c r="L250" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M250" t="s">
-        <v>1401</v>
+        <v>1116</v>
       </c>
       <c r="N250" t="s">
         <v>1343</v>
@@ -15721,10 +15769,10 @@
         <v>1116</v>
       </c>
       <c r="L251" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M251" t="s">
-        <v>1401</v>
+        <v>1121</v>
       </c>
       <c r="N251" t="s">
         <v>1116</v>
@@ -15765,10 +15813,10 @@
         <v>1344</v>
       </c>
       <c r="L252" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M252" t="s">
-        <v>1401</v>
+        <v>1343</v>
       </c>
       <c r="N252" t="s">
         <v>1344</v>
@@ -15809,10 +15857,10 @@
         <v>1345</v>
       </c>
       <c r="L253" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M253" t="s">
-        <v>1401</v>
+        <v>1123</v>
       </c>
       <c r="N253" t="s">
         <v>1345</v>
@@ -15853,10 +15901,10 @@
         <v>840</v>
       </c>
       <c r="L254" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M254" t="s">
-        <v>1401</v>
+        <v>1119</v>
       </c>
       <c r="N254" t="s">
         <v>840</v>
@@ -15897,10 +15945,10 @@
         <v>1119</v>
       </c>
       <c r="L255" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M255" t="s">
-        <v>1401</v>
+        <v>1343</v>
       </c>
       <c r="N255" t="s">
         <v>1119</v>
@@ -15941,10 +15989,10 @@
         <v>1346</v>
       </c>
       <c r="L256" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M256" t="s">
-        <v>1401</v>
+        <v>1121</v>
       </c>
       <c r="N256" t="s">
         <v>1346</v>
@@ -15985,10 +16033,10 @@
         <v>1347</v>
       </c>
       <c r="L257" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M257" t="s">
-        <v>1401</v>
+        <v>1095</v>
       </c>
       <c r="N257" t="s">
         <v>1347</v>
@@ -16029,10 +16077,10 @@
         <v>1343</v>
       </c>
       <c r="L258" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M258" t="s">
-        <v>1401</v>
+        <v>1116</v>
       </c>
       <c r="N258" t="s">
         <v>1343</v>
@@ -16073,10 +16121,10 @@
         <v>1348</v>
       </c>
       <c r="L259" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M259" t="s">
-        <v>1401</v>
+        <v>1120</v>
       </c>
       <c r="N259" t="s">
         <v>1348</v>
@@ -16117,10 +16165,10 @@
         <v>1349</v>
       </c>
       <c r="L260" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M260" t="s">
-        <v>1401</v>
+        <v>1117</v>
       </c>
       <c r="N260" t="s">
         <v>1349</v>
@@ -16161,10 +16209,10 @@
         <v>842</v>
       </c>
       <c r="L261" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M261" t="s">
-        <v>1401</v>
+        <v>1123</v>
       </c>
       <c r="N261" t="s">
         <v>842</v>
@@ -16205,10 +16253,10 @@
         <v>1350</v>
       </c>
       <c r="L262" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M262" t="s">
-        <v>1401</v>
+        <v>1349</v>
       </c>
       <c r="N262" t="s">
         <v>1350</v>
@@ -16249,10 +16297,10 @@
         <v>1349</v>
       </c>
       <c r="L263" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M263" t="s">
-        <v>1401</v>
+        <v>1117</v>
       </c>
       <c r="N263" t="s">
         <v>1349</v>
@@ -16293,10 +16341,10 @@
         <v>1128</v>
       </c>
       <c r="L264" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M264" t="s">
-        <v>1401</v>
+        <v>842</v>
       </c>
       <c r="N264" t="s">
         <v>1128</v>
@@ -16337,10 +16385,10 @@
         <v>1351</v>
       </c>
       <c r="L265" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M265" t="s">
-        <v>1401</v>
+        <v>1425</v>
       </c>
       <c r="N265" t="s">
         <v>1351</v>
@@ -16381,10 +16429,10 @@
         <v>1350</v>
       </c>
       <c r="L266" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M266" t="s">
-        <v>1401</v>
+        <v>1349</v>
       </c>
       <c r="N266" t="s">
         <v>1350</v>
@@ -16425,10 +16473,10 @@
         <v>842</v>
       </c>
       <c r="L267" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M267" t="s">
-        <v>1401</v>
+        <v>1123</v>
       </c>
       <c r="N267" t="s">
         <v>842</v>
@@ -16469,10 +16517,10 @@
         <v>1131</v>
       </c>
       <c r="L268" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M268" t="s">
-        <v>1401</v>
+        <v>1123</v>
       </c>
       <c r="N268" t="s">
         <v>1131</v>
@@ -16513,10 +16561,10 @@
         <v>1352</v>
       </c>
       <c r="L269" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M269" t="s">
-        <v>1401</v>
+        <v>1142</v>
       </c>
       <c r="N269" t="s">
         <v>1352</v>
@@ -16557,10 +16605,10 @@
         <v>1137</v>
       </c>
       <c r="L270" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M270" t="s">
-        <v>1401</v>
+        <v>1128</v>
       </c>
       <c r="N270" t="s">
         <v>1137</v>
@@ -16601,10 +16649,10 @@
         <v>1138</v>
       </c>
       <c r="L271" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M271" t="s">
-        <v>1401</v>
+        <v>1129</v>
       </c>
       <c r="N271" t="s">
         <v>1138</v>
@@ -16645,10 +16693,10 @@
         <v>1139</v>
       </c>
       <c r="L272" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M272" t="s">
-        <v>1401</v>
+        <v>1137</v>
       </c>
       <c r="N272" t="s">
         <v>1139</v>
@@ -16689,10 +16737,10 @@
         <v>1141</v>
       </c>
       <c r="L273" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M273" t="s">
-        <v>1401</v>
+        <v>1138</v>
       </c>
       <c r="N273" t="s">
         <v>1141</v>
@@ -16733,10 +16781,10 @@
         <v>1137</v>
       </c>
       <c r="L274" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M274" t="s">
-        <v>1401</v>
+        <v>1128</v>
       </c>
       <c r="N274" t="s">
         <v>1137</v>
@@ -16777,10 +16825,10 @@
         <v>1138</v>
       </c>
       <c r="L275" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M275" t="s">
-        <v>1401</v>
+        <v>1129</v>
       </c>
       <c r="N275" t="s">
         <v>1138</v>
@@ -16821,10 +16869,10 @@
         <v>1139</v>
       </c>
       <c r="L276" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M276" t="s">
-        <v>1401</v>
+        <v>1137</v>
       </c>
       <c r="N276" t="s">
         <v>1139</v>
@@ -16865,10 +16913,10 @@
         <v>1353</v>
       </c>
       <c r="L277" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M277" t="s">
-        <v>1401</v>
+        <v>1426</v>
       </c>
       <c r="N277" t="s">
         <v>1353</v>
@@ -16909,10 +16957,10 @@
         <v>1141</v>
       </c>
       <c r="L278" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M278" t="s">
-        <v>1401</v>
+        <v>1138</v>
       </c>
       <c r="N278" t="s">
         <v>1141</v>
@@ -16953,10 +17001,10 @@
         <v>1142</v>
       </c>
       <c r="L279" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M279" t="s">
-        <v>1401</v>
+        <v>1139</v>
       </c>
       <c r="N279" t="s">
         <v>1142</v>
@@ -16997,10 +17045,10 @@
         <v>1143</v>
       </c>
       <c r="L280" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M280" t="s">
-        <v>1401</v>
+        <v>1129</v>
       </c>
       <c r="N280" t="s">
         <v>1143</v>
@@ -17041,10 +17089,10 @@
         <v>1144</v>
       </c>
       <c r="L281" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M281" t="s">
-        <v>1401</v>
+        <v>1141</v>
       </c>
       <c r="N281" t="s">
         <v>1144</v>
@@ -17085,10 +17133,10 @@
         <v>1352</v>
       </c>
       <c r="L282" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M282" t="s">
-        <v>1401</v>
+        <v>1142</v>
       </c>
       <c r="N282" t="s">
         <v>1352</v>
@@ -17129,10 +17177,10 @@
         <v>1151</v>
       </c>
       <c r="L283" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M283" t="s">
-        <v>1401</v>
+        <v>1144</v>
       </c>
       <c r="N283" t="s">
         <v>1151</v>
@@ -17173,10 +17221,10 @@
         <v>1353</v>
       </c>
       <c r="L284" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M284" t="s">
-        <v>1401</v>
+        <v>1426</v>
       </c>
       <c r="N284" t="s">
         <v>1353</v>
@@ -17217,10 +17265,10 @@
         <v>1354</v>
       </c>
       <c r="L285" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M285" t="s">
-        <v>1401</v>
+        <v>1426</v>
       </c>
       <c r="N285" t="s">
         <v>1354</v>
@@ -17261,10 +17309,10 @@
         <v>1354</v>
       </c>
       <c r="L286" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M286" t="s">
-        <v>1401</v>
+        <v>1426</v>
       </c>
       <c r="N286" t="s">
         <v>1354</v>
@@ -17305,10 +17353,10 @@
         <v>1354</v>
       </c>
       <c r="L287" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M287" t="s">
-        <v>1401</v>
+        <v>1426</v>
       </c>
       <c r="N287" t="s">
         <v>1354</v>
@@ -17349,10 +17397,10 @@
         <v>1151</v>
       </c>
       <c r="L288" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M288" t="s">
-        <v>1401</v>
+        <v>1144</v>
       </c>
       <c r="N288" t="s">
         <v>1151</v>
@@ -17393,10 +17441,10 @@
         <v>1353</v>
       </c>
       <c r="L289" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M289" t="s">
-        <v>1401</v>
+        <v>1426</v>
       </c>
       <c r="N289" t="s">
         <v>1353</v>
@@ -17437,10 +17485,10 @@
         <v>1354</v>
       </c>
       <c r="L290" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M290" t="s">
-        <v>1401</v>
+        <v>1426</v>
       </c>
       <c r="N290" t="s">
         <v>1354</v>
@@ -17481,10 +17529,10 @@
         <v>1354</v>
       </c>
       <c r="L291" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M291" t="s">
-        <v>1401</v>
+        <v>1426</v>
       </c>
       <c r="N291" t="s">
         <v>1354</v>
@@ -17525,10 +17573,10 @@
         <v>1355</v>
       </c>
       <c r="L292" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M292" t="s">
-        <v>1401</v>
+        <v>1151</v>
       </c>
       <c r="N292" t="s">
         <v>1355</v>
@@ -17569,10 +17617,10 @@
         <v>1354</v>
       </c>
       <c r="L293" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M293" t="s">
-        <v>1401</v>
+        <v>1426</v>
       </c>
       <c r="N293" t="s">
         <v>1354</v>
@@ -17613,10 +17661,10 @@
         <v>1157</v>
       </c>
       <c r="L294" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M294" t="s">
-        <v>1401</v>
+        <v>1354</v>
       </c>
       <c r="N294" t="s">
         <v>1157</v>
@@ -17657,10 +17705,10 @@
         <v>1161</v>
       </c>
       <c r="L295" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M295" t="s">
-        <v>1401</v>
+        <v>1155</v>
       </c>
       <c r="N295" t="s">
         <v>1161</v>
@@ -17701,10 +17749,10 @@
         <v>1168</v>
       </c>
       <c r="L296" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M296" t="s">
-        <v>1401</v>
+        <v>1157</v>
       </c>
       <c r="N296" t="s">
         <v>1168</v>
@@ -17745,10 +17793,10 @@
         <v>850</v>
       </c>
       <c r="L297" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M297" t="s">
-        <v>1401</v>
+        <v>1161</v>
       </c>
       <c r="N297" t="s">
         <v>850</v>
@@ -17789,10 +17837,10 @@
         <v>1161</v>
       </c>
       <c r="L298" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M298" t="s">
-        <v>1401</v>
+        <v>1155</v>
       </c>
       <c r="N298" t="s">
         <v>1161</v>
@@ -17833,10 +17881,10 @@
         <v>1162</v>
       </c>
       <c r="L299" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M299" t="s">
-        <v>1401</v>
+        <v>1157</v>
       </c>
       <c r="N299" t="s">
         <v>1162</v>
@@ -17877,10 +17925,10 @@
         <v>1356</v>
       </c>
       <c r="L300" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M300" t="s">
-        <v>1401</v>
+        <v>1168</v>
       </c>
       <c r="N300" t="s">
         <v>1356</v>
@@ -17921,10 +17969,10 @@
         <v>1357</v>
       </c>
       <c r="L301" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M301" t="s">
-        <v>1401</v>
+        <v>1157</v>
       </c>
       <c r="N301" t="s">
         <v>1357</v>
@@ -17965,10 +18013,10 @@
         <v>1165</v>
       </c>
       <c r="L302" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M302" t="s">
-        <v>1401</v>
+        <v>1161</v>
       </c>
       <c r="N302" t="s">
         <v>1165</v>
@@ -18009,10 +18057,10 @@
         <v>1161</v>
       </c>
       <c r="L303" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M303" t="s">
-        <v>1401</v>
+        <v>1155</v>
       </c>
       <c r="N303" t="s">
         <v>1161</v>
@@ -18053,10 +18101,10 @@
         <v>1358</v>
       </c>
       <c r="L304" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M304" t="s">
-        <v>1401</v>
+        <v>1161</v>
       </c>
       <c r="N304" t="s">
         <v>1358</v>
@@ -18097,10 +18145,10 @@
         <v>1168</v>
       </c>
       <c r="L305" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M305" t="s">
-        <v>1401</v>
+        <v>1157</v>
       </c>
       <c r="N305" t="s">
         <v>1168</v>
@@ -18141,10 +18189,10 @@
         <v>850</v>
       </c>
       <c r="L306" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M306" t="s">
-        <v>1401</v>
+        <v>1161</v>
       </c>
       <c r="N306" t="s">
         <v>850</v>
@@ -18185,10 +18233,10 @@
         <v>851</v>
       </c>
       <c r="L307" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M307" t="s">
-        <v>1401</v>
+        <v>850</v>
       </c>
       <c r="N307" t="s">
         <v>851</v>
@@ -18229,10 +18277,10 @@
         <v>1359</v>
       </c>
       <c r="L308" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M308" t="s">
-        <v>1401</v>
+        <v>1163</v>
       </c>
       <c r="N308" t="s">
         <v>1359</v>
@@ -18273,10 +18321,10 @@
         <v>1360</v>
       </c>
       <c r="L309" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M309" t="s">
-        <v>1401</v>
+        <v>851</v>
       </c>
       <c r="N309" t="s">
         <v>1360</v>
@@ -18317,10 +18365,10 @@
         <v>1361</v>
       </c>
       <c r="L310" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M310" t="s">
-        <v>1401</v>
+        <v>1359</v>
       </c>
       <c r="N310" t="s">
         <v>1361</v>
@@ -18361,10 +18409,10 @@
         <v>851</v>
       </c>
       <c r="L311" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M311" t="s">
-        <v>1401</v>
+        <v>850</v>
       </c>
       <c r="N311" t="s">
         <v>851</v>
@@ -18405,10 +18453,10 @@
         <v>851</v>
       </c>
       <c r="L312" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M312" t="s">
-        <v>1401</v>
+        <v>850</v>
       </c>
       <c r="N312" t="s">
         <v>851</v>
@@ -18449,10 +18497,10 @@
         <v>1362</v>
       </c>
       <c r="L313" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M313" t="s">
-        <v>1401</v>
+        <v>1427</v>
       </c>
       <c r="N313" t="s">
         <v>1362</v>
@@ -18493,10 +18541,10 @@
         <v>1175</v>
       </c>
       <c r="L314" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M314" t="s">
-        <v>1401</v>
+        <v>1361</v>
       </c>
       <c r="N314" t="s">
         <v>1175</v>
@@ -18537,10 +18585,10 @@
         <v>1085</v>
       </c>
       <c r="L315" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M315" t="s">
-        <v>1401</v>
+        <v>1174</v>
       </c>
       <c r="N315" t="s">
         <v>1085</v>
@@ -18581,10 +18629,10 @@
         <v>1363</v>
       </c>
       <c r="L316" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M316" t="s">
-        <v>1401</v>
+        <v>1175</v>
       </c>
       <c r="N316" t="s">
         <v>1363</v>
@@ -18625,10 +18673,10 @@
         <v>1359</v>
       </c>
       <c r="L317" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M317" t="s">
-        <v>1401</v>
+        <v>1163</v>
       </c>
       <c r="N317" t="s">
         <v>1359</v>
@@ -18669,10 +18717,10 @@
         <v>1361</v>
       </c>
       <c r="L318" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M318" t="s">
-        <v>1401</v>
+        <v>1359</v>
       </c>
       <c r="N318" t="s">
         <v>1361</v>
@@ -18713,10 +18761,10 @@
         <v>1364</v>
       </c>
       <c r="L319" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M319" t="s">
-        <v>1401</v>
+        <v>1180</v>
       </c>
       <c r="N319" t="s">
         <v>1364</v>
@@ -18757,10 +18805,10 @@
         <v>1360</v>
       </c>
       <c r="L320" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M320" t="s">
-        <v>1401</v>
+        <v>851</v>
       </c>
       <c r="N320" t="s">
         <v>1360</v>
@@ -18801,10 +18849,10 @@
         <v>1365</v>
       </c>
       <c r="L321" s="5" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="M321" t="s">
-        <v>1401</v>
+        <v>1365</v>
       </c>
       <c r="N321" t="s">
         <v>1365</v>
@@ -18845,10 +18893,10 @@
         <v>1366</v>
       </c>
       <c r="L322" s="5" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="M322" t="s">
-        <v>1401</v>
+        <v>1365</v>
       </c>
       <c r="N322" t="s">
         <v>1366</v>
@@ -18889,10 +18937,10 @@
         <v>1365</v>
       </c>
       <c r="L323" s="5" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="M323" t="s">
-        <v>1401</v>
+        <v>1365</v>
       </c>
       <c r="N323" t="s">
         <v>1365</v>
@@ -18933,10 +18981,10 @@
         <v>1365</v>
       </c>
       <c r="L324" s="5" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="M324" t="s">
-        <v>1401</v>
+        <v>1365</v>
       </c>
       <c r="N324" t="s">
         <v>1365</v>
@@ -18977,10 +19025,10 @@
         <v>1367</v>
       </c>
       <c r="L325" s="5" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="M325" t="s">
-        <v>1401</v>
+        <v>1365</v>
       </c>
       <c r="N325" t="s">
         <v>1367</v>
@@ -19021,10 +19069,10 @@
         <v>1187</v>
       </c>
       <c r="L326" s="5" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="M326" t="s">
-        <v>1401</v>
+        <v>1365</v>
       </c>
       <c r="N326" t="s">
         <v>1187</v>
@@ -19068,7 +19116,7 @@
         <v>855</v>
       </c>
       <c r="M327" t="s">
-        <v>1401</v>
+        <v>855</v>
       </c>
       <c r="N327" t="s">
         <v>855</v>
@@ -19109,10 +19157,10 @@
         <v>1368</v>
       </c>
       <c r="L328" s="5" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="M328" t="s">
-        <v>1401</v>
+        <v>1428</v>
       </c>
       <c r="N328" t="s">
         <v>1368</v>
@@ -19153,10 +19201,10 @@
         <v>1369</v>
       </c>
       <c r="L329" s="5" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="M329" t="s">
-        <v>1401</v>
+        <v>1369</v>
       </c>
       <c r="N329" t="s">
         <v>1369</v>
@@ -19197,10 +19245,10 @@
         <v>1370</v>
       </c>
       <c r="L330" s="5" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="M330" t="s">
-        <v>1401</v>
+        <v>1201</v>
       </c>
       <c r="N330" t="s">
         <v>1370</v>
@@ -19241,10 +19289,10 @@
         <v>1368</v>
       </c>
       <c r="L331" s="5" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="M331" t="s">
-        <v>1401</v>
+        <v>1429</v>
       </c>
       <c r="N331" t="s">
         <v>1368</v>
@@ -19285,10 +19333,10 @@
         <v>1371</v>
       </c>
       <c r="L332" s="5" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="M332" t="s">
-        <v>1401</v>
+        <v>1430</v>
       </c>
       <c r="N332" t="s">
         <v>1371</v>
@@ -19329,10 +19377,10 @@
         <v>1372</v>
       </c>
       <c r="L333" s="5" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="M333" t="s">
-        <v>1401</v>
+        <v>1193</v>
       </c>
       <c r="N333" t="s">
         <v>1372</v>
@@ -19373,10 +19421,10 @@
         <v>1373</v>
       </c>
       <c r="L334" s="5" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="M334" t="s">
-        <v>1401</v>
+        <v>1194</v>
       </c>
       <c r="N334" t="s">
         <v>1373</v>
@@ -19417,10 +19465,10 @@
         <v>1368</v>
       </c>
       <c r="L335" s="5" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="M335" t="s">
-        <v>1401</v>
+        <v>1431</v>
       </c>
       <c r="N335" t="s">
         <v>1368</v>
@@ -19461,10 +19509,10 @@
         <v>1370</v>
       </c>
       <c r="L336" s="5" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="M336" t="s">
-        <v>1401</v>
+        <v>1196</v>
       </c>
       <c r="N336" t="s">
         <v>1370</v>
@@ -19505,10 +19553,10 @@
         <v>1374</v>
       </c>
       <c r="L337" s="5" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="M337" t="s">
-        <v>1401</v>
+        <v>1197</v>
       </c>
       <c r="N337" t="s">
         <v>1374</v>
@@ -19549,10 +19597,10 @@
         <v>1369</v>
       </c>
       <c r="L338" s="5" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="M338" t="s">
-        <v>1401</v>
+        <v>1198</v>
       </c>
       <c r="N338" t="s">
         <v>1369</v>
@@ -19593,10 +19641,10 @@
         <v>1370</v>
       </c>
       <c r="L339" s="5" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="M339" t="s">
-        <v>1401</v>
+        <v>1201</v>
       </c>
       <c r="N339" t="s">
         <v>1370</v>
@@ -19637,10 +19685,10 @@
         <v>1375</v>
       </c>
       <c r="L340" s="5" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="M340" t="s">
-        <v>1401</v>
+        <v>1432</v>
       </c>
       <c r="N340" t="s">
         <v>1375</v>
@@ -19681,10 +19729,10 @@
         <v>1368</v>
       </c>
       <c r="L341" s="5" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="M341" t="s">
-        <v>1401</v>
+        <v>1203</v>
       </c>
       <c r="N341" t="s">
         <v>1368</v>
@@ -19725,10 +19773,10 @@
         <v>1376</v>
       </c>
       <c r="L342" s="5" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="M342" t="s">
-        <v>1401</v>
+        <v>1205</v>
       </c>
       <c r="N342" t="s">
         <v>1376</v>
@@ -19769,10 +19817,10 @@
         <v>1369</v>
       </c>
       <c r="L343" s="5" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="M343" t="s">
-        <v>1401</v>
+        <v>1369</v>
       </c>
       <c r="N343" t="s">
         <v>1369</v>
@@ -19813,10 +19861,10 @@
         <v>1372</v>
       </c>
       <c r="L344" s="5" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="M344" t="s">
-        <v>1401</v>
+        <v>1206</v>
       </c>
       <c r="N344" t="s">
         <v>1372</v>
@@ -19857,10 +19905,10 @@
         <v>1377</v>
       </c>
       <c r="L345" s="5" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="M345" t="s">
-        <v>1401</v>
+        <v>1378</v>
       </c>
       <c r="N345" t="s">
         <v>1377</v>
@@ -19901,10 +19949,10 @@
         <v>1378</v>
       </c>
       <c r="L346" s="5" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="M346" t="s">
-        <v>1401</v>
+        <v>1379</v>
       </c>
       <c r="N346" t="s">
         <v>1378</v>
@@ -19945,10 +19993,10 @@
         <v>1379</v>
       </c>
       <c r="L347" s="5" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="M347" t="s">
-        <v>1401</v>
+        <v>863</v>
       </c>
       <c r="N347" t="s">
         <v>1379</v>
@@ -19989,10 +20037,10 @@
         <v>863</v>
       </c>
       <c r="L348" s="5" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="M348" t="s">
-        <v>1401</v>
+        <v>1210</v>
       </c>
       <c r="N348" t="s">
         <v>863</v>
@@ -20033,10 +20081,10 @@
         <v>1378</v>
       </c>
       <c r="L349" s="5" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="M349" t="s">
-        <v>1401</v>
+        <v>1379</v>
       </c>
       <c r="N349" t="s">
         <v>1378</v>
@@ -20077,10 +20125,10 @@
         <v>1380</v>
       </c>
       <c r="L350" s="5" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="M350" t="s">
-        <v>1401</v>
+        <v>1212</v>
       </c>
       <c r="N350" t="s">
         <v>1380</v>
@@ -20121,10 +20169,10 @@
         <v>1379</v>
       </c>
       <c r="L351" s="5" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="M351" t="s">
-        <v>1401</v>
+        <v>863</v>
       </c>
       <c r="N351" t="s">
         <v>1379</v>
@@ -20165,10 +20213,10 @@
         <v>1381</v>
       </c>
       <c r="L352" s="5" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="M352" t="s">
-        <v>1401</v>
+        <v>1382</v>
       </c>
       <c r="N352" t="s">
         <v>1381</v>
@@ -20209,10 +20257,10 @@
         <v>1379</v>
       </c>
       <c r="L353" s="5" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="M353" t="s">
-        <v>1401</v>
+        <v>863</v>
       </c>
       <c r="N353" t="s">
         <v>1379</v>
@@ -20253,10 +20301,10 @@
         <v>1382</v>
       </c>
       <c r="L354" s="5" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="M354" t="s">
-        <v>1401</v>
+        <v>1217</v>
       </c>
       <c r="N354" t="s">
         <v>1382</v>
@@ -20297,10 +20345,10 @@
         <v>1215</v>
       </c>
       <c r="L355" s="5" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="M355" t="s">
-        <v>1401</v>
+        <v>1217</v>
       </c>
       <c r="N355" t="s">
         <v>1215</v>
@@ -20341,10 +20389,10 @@
         <v>1216</v>
       </c>
       <c r="L356" s="5" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="M356" t="s">
-        <v>1401</v>
+        <v>1217</v>
       </c>
       <c r="N356" t="s">
         <v>1216</v>
@@ -20385,10 +20433,10 @@
         <v>1217</v>
       </c>
       <c r="L357" s="5" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="M357" t="s">
-        <v>1401</v>
+        <v>1218</v>
       </c>
       <c r="N357" t="s">
         <v>1217</v>
@@ -20429,10 +20477,10 @@
         <v>1218</v>
       </c>
       <c r="L358" s="5" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="M358" t="s">
-        <v>1401</v>
+        <v>1383</v>
       </c>
       <c r="N358" t="s">
         <v>1218</v>
@@ -20473,10 +20521,10 @@
         <v>1383</v>
       </c>
       <c r="L359" s="5" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="M359" t="s">
-        <v>1401</v>
+        <v>1220</v>
       </c>
       <c r="N359" t="s">
         <v>1383</v>
@@ -20517,10 +20565,10 @@
         <v>1220</v>
       </c>
       <c r="L360" s="5" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="M360" t="s">
-        <v>1401</v>
+        <v>1220</v>
       </c>
       <c r="N360" t="s">
         <v>1220</v>
@@ -20561,10 +20609,10 @@
         <v>1221</v>
       </c>
       <c r="L361" s="5" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="M361" t="s">
-        <v>1401</v>
+        <v>1221</v>
       </c>
       <c r="N361" t="s">
         <v>1221</v>
@@ -20605,10 +20653,10 @@
         <v>1222</v>
       </c>
       <c r="L362" s="5" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="M362" t="s">
-        <v>1401</v>
+        <v>1220</v>
       </c>
       <c r="N362" t="s">
         <v>1222</v>
@@ -20649,10 +20697,10 @@
         <v>1383</v>
       </c>
       <c r="L363" s="5" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="M363" t="s">
-        <v>1401</v>
+        <v>1220</v>
       </c>
       <c r="N363" t="s">
         <v>1383</v>
@@ -20693,10 +20741,10 @@
         <v>1225</v>
       </c>
       <c r="L364" s="5" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="M364" t="s">
-        <v>1401</v>
+        <v>1225</v>
       </c>
       <c r="N364" t="s">
         <v>1225</v>
@@ -20737,10 +20785,10 @@
         <v>1225</v>
       </c>
       <c r="L365" s="5" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="M365" t="s">
-        <v>1401</v>
+        <v>1225</v>
       </c>
       <c r="N365" t="s">
         <v>1225</v>
@@ -20781,10 +20829,10 @@
         <v>1225</v>
       </c>
       <c r="L366" s="5" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="M366" t="s">
-        <v>1401</v>
+        <v>1225</v>
       </c>
       <c r="N366" t="s">
         <v>1225</v>
@@ -20825,10 +20873,10 @@
         <v>1384</v>
       </c>
       <c r="L367" s="5" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="M367" t="s">
-        <v>1401</v>
+        <v>1384</v>
       </c>
       <c r="N367" t="s">
         <v>1384</v>
@@ -20869,10 +20917,10 @@
         <v>1385</v>
       </c>
       <c r="L368" s="5" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="M368" t="s">
-        <v>1401</v>
+        <v>1433</v>
       </c>
       <c r="N368" t="s">
         <v>1385</v>
@@ -20913,10 +20961,10 @@
         <v>871</v>
       </c>
       <c r="L369" s="5" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="M369" t="s">
-        <v>1401</v>
+        <v>871</v>
       </c>
       <c r="N369" t="s">
         <v>871</v>
@@ -20957,10 +21005,10 @@
         <v>1386</v>
       </c>
       <c r="L370" s="5" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="M370" t="s">
-        <v>1401</v>
+        <v>1230</v>
       </c>
       <c r="N370" t="s">
         <v>1386</v>
@@ -21001,10 +21049,10 @@
         <v>1231</v>
       </c>
       <c r="L371" s="5" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="M371" t="s">
-        <v>1401</v>
+        <v>1231</v>
       </c>
       <c r="N371" t="s">
         <v>1231</v>
@@ -21045,10 +21093,10 @@
         <v>871</v>
       </c>
       <c r="L372" s="5" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="M372" t="s">
-        <v>1401</v>
+        <v>871</v>
       </c>
       <c r="N372" t="s">
         <v>871</v>
@@ -21089,10 +21137,10 @@
         <v>1233</v>
       </c>
       <c r="L373" s="5" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="M373" t="s">
-        <v>1401</v>
+        <v>1233</v>
       </c>
       <c r="N373" t="s">
         <v>1233</v>
@@ -21133,10 +21181,10 @@
         <v>1234</v>
       </c>
       <c r="L374" s="5" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="M374" t="s">
-        <v>1401</v>
+        <v>1234</v>
       </c>
       <c r="N374" t="s">
         <v>1234</v>
@@ -21177,10 +21225,10 @@
         <v>871</v>
       </c>
       <c r="L375" s="5" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="M375" t="s">
-        <v>1401</v>
+        <v>871</v>
       </c>
       <c r="N375" t="s">
         <v>871</v>
@@ -21221,10 +21269,10 @@
         <v>1236</v>
       </c>
       <c r="L376" s="5" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="M376" t="s">
-        <v>1401</v>
+        <v>1236</v>
       </c>
       <c r="N376" t="s">
         <v>1236</v>
@@ -21265,10 +21313,10 @@
         <v>1385</v>
       </c>
       <c r="L377" s="5" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="M377" t="s">
-        <v>1401</v>
+        <v>1433</v>
       </c>
       <c r="N377" t="s">
         <v>1385</v>
@@ -21309,10 +21357,10 @@
         <v>1238</v>
       </c>
       <c r="L378" s="5" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="M378" t="s">
-        <v>1401</v>
+        <v>871</v>
       </c>
       <c r="N378" t="s">
         <v>1238</v>
@@ -21353,10 +21401,10 @@
         <v>1239</v>
       </c>
       <c r="L379" s="5" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="M379" t="s">
-        <v>1401</v>
+        <v>1238</v>
       </c>
       <c r="N379" t="s">
         <v>1239</v>
@@ -21397,10 +21445,10 @@
         <v>1240</v>
       </c>
       <c r="L380" s="5" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="M380" t="s">
-        <v>1401</v>
+        <v>1239</v>
       </c>
       <c r="N380" t="s">
         <v>1240</v>
@@ -21441,10 +21489,10 @@
         <v>1387</v>
       </c>
       <c r="L381" s="5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="M381" t="s">
-        <v>1401</v>
+        <v>1240</v>
       </c>
       <c r="N381" t="s">
         <v>1387</v>
@@ -21485,10 +21533,10 @@
         <v>1388</v>
       </c>
       <c r="L382" s="5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="M382" t="s">
-        <v>1401</v>
+        <v>1387</v>
       </c>
       <c r="N382" t="s">
         <v>1388</v>
@@ -21529,10 +21577,10 @@
         <v>1389</v>
       </c>
       <c r="L383" s="5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="M383" t="s">
-        <v>1401</v>
+        <v>1388</v>
       </c>
       <c r="N383" t="s">
         <v>1389</v>
@@ -21573,10 +21621,10 @@
         <v>1390</v>
       </c>
       <c r="L384" s="5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="M384" t="s">
-        <v>1401</v>
+        <v>1252</v>
       </c>
       <c r="N384" t="s">
         <v>1390</v>
@@ -21617,10 +21665,10 @@
         <v>1391</v>
       </c>
       <c r="L385" s="5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="M385" t="s">
-        <v>1401</v>
+        <v>1240</v>
       </c>
       <c r="N385" t="s">
         <v>1391</v>
@@ -21661,10 +21709,10 @@
         <v>1392</v>
       </c>
       <c r="L386" s="5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="M386" t="s">
-        <v>1401</v>
+        <v>1389</v>
       </c>
       <c r="N386" t="s">
         <v>1392</v>
@@ -21705,10 +21753,10 @@
         <v>1247</v>
       </c>
       <c r="L387" s="5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="M387" t="s">
-        <v>1401</v>
+        <v>1392</v>
       </c>
       <c r="N387" t="s">
         <v>1247</v>
@@ -21749,10 +21797,10 @@
         <v>1248</v>
       </c>
       <c r="L388" s="5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="M388" t="s">
-        <v>1401</v>
+        <v>1248</v>
       </c>
       <c r="N388" t="s">
         <v>1248</v>
@@ -21793,10 +21841,10 @@
         <v>1392</v>
       </c>
       <c r="L389" s="5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="M389" t="s">
-        <v>1401</v>
+        <v>1389</v>
       </c>
       <c r="N389" t="s">
         <v>1392</v>
@@ -21837,10 +21885,10 @@
         <v>1393</v>
       </c>
       <c r="L390" s="5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="M390" t="s">
-        <v>1401</v>
+        <v>1250</v>
       </c>
       <c r="N390" t="s">
         <v>1393</v>
@@ -21881,10 +21929,10 @@
         <v>1394</v>
       </c>
       <c r="L391" s="5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="M391" t="s">
-        <v>1401</v>
+        <v>1251</v>
       </c>
       <c r="N391" t="s">
         <v>1394</v>
@@ -21925,10 +21973,10 @@
         <v>1395</v>
       </c>
       <c r="L392" s="5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="M392" t="s">
-        <v>1401</v>
+        <v>1252</v>
       </c>
       <c r="N392" t="s">
         <v>1395</v>
@@ -21969,10 +22017,10 @@
         <v>1253</v>
       </c>
       <c r="L393" s="5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="M393" t="s">
-        <v>1401</v>
+        <v>1240</v>
       </c>
       <c r="N393" t="s">
         <v>1253</v>
@@ -22013,10 +22061,10 @@
         <v>1387</v>
       </c>
       <c r="L394" s="5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="M394" t="s">
-        <v>1401</v>
+        <v>1240</v>
       </c>
       <c r="N394" t="s">
         <v>1387</v>
@@ -22057,10 +22105,10 @@
         <v>1390</v>
       </c>
       <c r="L395" s="5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="M395" t="s">
-        <v>1401</v>
+        <v>1255</v>
       </c>
       <c r="N395" t="s">
         <v>1390</v>
@@ -22101,10 +22149,10 @@
         <v>1396</v>
       </c>
       <c r="L396" s="5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="M396" t="s">
-        <v>1401</v>
+        <v>1240</v>
       </c>
       <c r="N396" t="s">
         <v>1396</v>
@@ -22145,10 +22193,10 @@
         <v>1391</v>
       </c>
       <c r="L397" s="5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="M397" t="s">
-        <v>1401</v>
+        <v>1240</v>
       </c>
       <c r="N397" t="s">
         <v>1391</v>
@@ -22189,10 +22237,10 @@
         <v>1258</v>
       </c>
       <c r="L398" s="5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="M398" t="s">
-        <v>1401</v>
+        <v>1258</v>
       </c>
       <c r="N398" t="s">
         <v>1258</v>
@@ -22233,10 +22281,10 @@
         <v>1397</v>
       </c>
       <c r="L399" s="5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="M399" t="s">
-        <v>1401</v>
+        <v>1259</v>
       </c>
       <c r="N399" t="s">
         <v>1397</v>
@@ -22277,10 +22325,10 @@
         <v>1389</v>
       </c>
       <c r="L400" s="5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="M400" t="s">
-        <v>1401</v>
+        <v>1388</v>
       </c>
       <c r="N400" t="s">
         <v>1389</v>
@@ -22321,10 +22369,10 @@
         <v>1398</v>
       </c>
       <c r="L401" s="5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="M401" t="s">
-        <v>1401</v>
+        <v>1261</v>
       </c>
       <c r="N401" t="s">
         <v>1398</v>
@@ -22365,10 +22413,10 @@
         <v>1388</v>
       </c>
       <c r="L402" s="5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="M402" t="s">
-        <v>1401</v>
+        <v>1387</v>
       </c>
       <c r="N402" t="s">
         <v>1388</v>
@@ -22409,10 +22457,10 @@
         <v>1399</v>
       </c>
       <c r="L403" s="5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="M403" t="s">
-        <v>1401</v>
+        <v>1263</v>
       </c>
       <c r="N403" t="s">
         <v>1399</v>
